--- a/data-migration/xlsx_1900-/1917_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1917_Winter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063C6B0F-8FAF-4146-A718-CD2FF4440C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB8C2B2-DC64-4EDF-9D95-5D94755BBA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="1366">
   <si>
     <t>Winter</t>
   </si>
@@ -4115,6 +4115,9 @@
   </si>
   <si>
     <t>meyer_e</t>
+  </si>
+  <si>
+    <t>Prof</t>
   </si>
 </sst>
 </file>
@@ -4464,8 +4467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L454"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I196" sqref="I196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5265,7 +5268,7 @@
         <v>1199</v>
       </c>
       <c r="I30" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -9330,7 +9333,7 @@
         <v>1245</v>
       </c>
       <c r="I186" t="s">
-        <v>1352</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -9356,7 +9359,7 @@
         <v>1245</v>
       </c>
       <c r="I187" t="s">
-        <v>1352</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -9382,7 +9385,7 @@
         <v>1245</v>
       </c>
       <c r="I188" t="s">
-        <v>1352</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -9408,7 +9411,7 @@
         <v>1245</v>
       </c>
       <c r="I189" t="s">
-        <v>1352</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -9434,7 +9437,7 @@
         <v>1341</v>
       </c>
       <c r="I190" t="s">
-        <v>1352</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -9460,7 +9463,7 @@
         <v>1341</v>
       </c>
       <c r="I191" t="s">
-        <v>1352</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -9486,7 +9489,7 @@
         <v>1341</v>
       </c>
       <c r="I192" t="s">
-        <v>1352</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -9512,7 +9515,7 @@
         <v>1341</v>
       </c>
       <c r="I193" t="s">
-        <v>1352</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -9538,7 +9541,7 @@
         <v>1341</v>
       </c>
       <c r="I194" t="s">
-        <v>1352</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -9564,7 +9567,7 @@
         <v>1361</v>
       </c>
       <c r="I195" t="s">
-        <v>1352</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -9590,7 +9593,7 @@
         <v>1361</v>
       </c>
       <c r="I196" t="s">
-        <v>1352</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -9616,7 +9619,7 @@
         <v>1361</v>
       </c>
       <c r="I197" t="s">
-        <v>1352</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -9642,7 +9645,7 @@
         <v>1361</v>
       </c>
       <c r="I198" t="s">
-        <v>1352</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">

--- a/data-migration/xlsx_1900-/1917_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1917_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB8C2B2-DC64-4EDF-9D95-5D94755BBA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D900E987-F8AC-40DE-A390-F4ABF693F3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3961,9 +3961,6 @@
     <t>meyerwirz_e</t>
   </si>
   <si>
-    <t>anderes _e</t>
-  </si>
-  <si>
     <t>heusser_h</t>
   </si>
   <si>
@@ -3997,9 +3994,6 @@
     <t>meyer_a</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>huber_a</t>
   </si>
   <si>
@@ -4118,6 +4112,12 @@
   </si>
   <si>
     <t>Prof</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>anderes_e</t>
   </si>
 </sst>
 </file>
@@ -4467,19 +4467,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I196" sqref="I196"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1917</v>
       </c>
@@ -4502,10 +4502,10 @@
         <v>1193</v>
       </c>
       <c r="I1" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1917</v>
       </c>
@@ -4528,10 +4528,10 @@
         <v>1194</v>
       </c>
       <c r="I2" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1917</v>
       </c>
@@ -4554,13 +4554,13 @@
         <v>1308</v>
       </c>
       <c r="I3" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="J3" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1917</v>
       </c>
@@ -4583,13 +4583,13 @@
         <v>1308</v>
       </c>
       <c r="I4" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="J4" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1917</v>
       </c>
@@ -4612,10 +4612,10 @@
         <v>1194</v>
       </c>
       <c r="I5" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1917</v>
       </c>
@@ -4638,13 +4638,13 @@
         <v>1308</v>
       </c>
       <c r="I6" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="J6" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1917</v>
       </c>
@@ -4667,13 +4667,13 @@
         <v>1308</v>
       </c>
       <c r="I7" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="J7" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1917</v>
       </c>
@@ -4693,13 +4693,13 @@
         <v>920</v>
       </c>
       <c r="H8" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I8" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1917</v>
       </c>
@@ -4722,10 +4722,10 @@
         <v>1196</v>
       </c>
       <c r="I9" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1917</v>
       </c>
@@ -4748,10 +4748,10 @@
         <v>1193</v>
       </c>
       <c r="I10" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1917</v>
       </c>
@@ -4774,10 +4774,10 @@
         <v>1193</v>
       </c>
       <c r="I11" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1917</v>
       </c>
@@ -4800,10 +4800,10 @@
         <v>1195</v>
       </c>
       <c r="I12" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1917</v>
       </c>
@@ -4826,10 +4826,10 @@
         <v>1195</v>
       </c>
       <c r="I13" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1917</v>
       </c>
@@ -4849,13 +4849,13 @@
         <v>926</v>
       </c>
       <c r="H14" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I14" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1917</v>
       </c>
@@ -4878,10 +4878,10 @@
         <v>1197</v>
       </c>
       <c r="I15" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1917</v>
       </c>
@@ -4901,13 +4901,13 @@
         <v>920</v>
       </c>
       <c r="H16" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I16" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1917</v>
       </c>
@@ -4930,10 +4930,10 @@
         <v>1197</v>
       </c>
       <c r="I17" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1917</v>
       </c>
@@ -4953,13 +4953,13 @@
         <v>928</v>
       </c>
       <c r="H18" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I18" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1917</v>
       </c>
@@ -4979,13 +4979,13 @@
         <v>929</v>
       </c>
       <c r="H19" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I19" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1917</v>
       </c>
@@ -5008,10 +5008,10 @@
         <v>1196</v>
       </c>
       <c r="I20" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1917</v>
       </c>
@@ -5034,10 +5034,10 @@
         <v>1194</v>
       </c>
       <c r="I21" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1917</v>
       </c>
@@ -5060,10 +5060,10 @@
         <v>1194</v>
       </c>
       <c r="I22" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1917</v>
       </c>
@@ -5083,13 +5083,13 @@
         <v>933</v>
       </c>
       <c r="H23" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I23" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1917</v>
       </c>
@@ -5112,10 +5112,10 @@
         <v>1193</v>
       </c>
       <c r="I24" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1917</v>
       </c>
@@ -5138,10 +5138,10 @@
         <v>1195</v>
       </c>
       <c r="I25" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1917</v>
       </c>
@@ -5164,10 +5164,10 @@
         <v>1197</v>
       </c>
       <c r="I26" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1917</v>
       </c>
@@ -5190,10 +5190,10 @@
         <v>1197</v>
       </c>
       <c r="I27" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1917</v>
       </c>
@@ -5213,13 +5213,13 @@
         <v>937</v>
       </c>
       <c r="H28" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I28" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1917</v>
       </c>
@@ -5242,10 +5242,10 @@
         <v>1198</v>
       </c>
       <c r="I29" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1917</v>
       </c>
@@ -5268,10 +5268,10 @@
         <v>1199</v>
       </c>
       <c r="I30" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1917</v>
       </c>
@@ -5294,10 +5294,10 @@
         <v>1200</v>
       </c>
       <c r="I31" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1917</v>
       </c>
@@ -5320,10 +5320,10 @@
         <v>1200</v>
       </c>
       <c r="I32" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1917</v>
       </c>
@@ -5346,10 +5346,10 @@
         <v>1201</v>
       </c>
       <c r="I33" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1917</v>
       </c>
@@ -5372,10 +5372,10 @@
         <v>1202</v>
       </c>
       <c r="I34" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1917</v>
       </c>
@@ -5398,10 +5398,10 @@
         <v>1202</v>
       </c>
       <c r="I35" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1917</v>
       </c>
@@ -5424,10 +5424,10 @@
         <v>1203</v>
       </c>
       <c r="I36" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1917</v>
       </c>
@@ -5450,10 +5450,10 @@
         <v>1203</v>
       </c>
       <c r="I37" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1917</v>
       </c>
@@ -5473,13 +5473,13 @@
         <v>947</v>
       </c>
       <c r="H38" t="s">
-        <v>1325</v>
+        <v>1364</v>
       </c>
       <c r="I38" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1917</v>
       </c>
@@ -5502,10 +5502,10 @@
         <v>1200</v>
       </c>
       <c r="I39" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1917</v>
       </c>
@@ -5528,10 +5528,10 @@
         <v>1202</v>
       </c>
       <c r="I40" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1917</v>
       </c>
@@ -5554,10 +5554,10 @@
         <v>1202</v>
       </c>
       <c r="I41" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1917</v>
       </c>
@@ -5580,10 +5580,10 @@
         <v>1204</v>
       </c>
       <c r="I42" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1917</v>
       </c>
@@ -5606,10 +5606,10 @@
         <v>1198</v>
       </c>
       <c r="I43" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1917</v>
       </c>
@@ -5632,10 +5632,10 @@
         <v>1204</v>
       </c>
       <c r="I44" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1917</v>
       </c>
@@ -5658,10 +5658,10 @@
         <v>1204</v>
       </c>
       <c r="I45" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1917</v>
       </c>
@@ -5684,10 +5684,10 @@
         <v>1198</v>
       </c>
       <c r="I46" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1917</v>
       </c>
@@ -5710,10 +5710,10 @@
         <v>1204</v>
       </c>
       <c r="I47" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1917</v>
       </c>
@@ -5736,10 +5736,10 @@
         <v>1205</v>
       </c>
       <c r="I48" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1917</v>
       </c>
@@ -5762,10 +5762,10 @@
         <v>1206</v>
       </c>
       <c r="I49" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1917</v>
       </c>
@@ -5788,10 +5788,10 @@
         <v>1206</v>
       </c>
       <c r="I50" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1917</v>
       </c>
@@ -5811,13 +5811,13 @@
         <v>959</v>
       </c>
       <c r="H51" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="I51" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1917</v>
       </c>
@@ -5840,10 +5840,10 @@
         <v>1207</v>
       </c>
       <c r="I52" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1917</v>
       </c>
@@ -5866,10 +5866,10 @@
         <v>1208</v>
       </c>
       <c r="I53" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1917</v>
       </c>
@@ -5892,10 +5892,10 @@
         <v>1208</v>
       </c>
       <c r="I54" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1917</v>
       </c>
@@ -5918,10 +5918,10 @@
         <v>1209</v>
       </c>
       <c r="I55" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1917</v>
       </c>
@@ -5944,10 +5944,10 @@
         <v>1209</v>
       </c>
       <c r="I56" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1917</v>
       </c>
@@ -5970,10 +5970,10 @@
         <v>1207</v>
       </c>
       <c r="I57" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1917</v>
       </c>
@@ -5996,10 +5996,10 @@
         <v>1210</v>
       </c>
       <c r="I58" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1917</v>
       </c>
@@ -6022,10 +6022,10 @@
         <v>1211</v>
       </c>
       <c r="I59" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1917</v>
       </c>
@@ -6048,10 +6048,10 @@
         <v>1211</v>
       </c>
       <c r="I60" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1917</v>
       </c>
@@ -6074,10 +6074,10 @@
         <v>1212</v>
       </c>
       <c r="I61" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1917</v>
       </c>
@@ -6100,13 +6100,13 @@
         <v>1213</v>
       </c>
       <c r="I62" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J62" t="s">
         <v>1352</v>
       </c>
-      <c r="J62" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1917</v>
       </c>
@@ -6129,10 +6129,10 @@
         <v>1214</v>
       </c>
       <c r="I63" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1917</v>
       </c>
@@ -6155,10 +6155,10 @@
         <v>1215</v>
       </c>
       <c r="I64" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1917</v>
       </c>
@@ -6181,10 +6181,10 @@
         <v>1198</v>
       </c>
       <c r="I65" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1917</v>
       </c>
@@ -6207,10 +6207,10 @@
         <v>1199</v>
       </c>
       <c r="I66" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1917</v>
       </c>
@@ -6233,10 +6233,10 @@
         <v>1200</v>
       </c>
       <c r="I67" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1917</v>
       </c>
@@ -6259,10 +6259,10 @@
         <v>1201</v>
       </c>
       <c r="I68" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1917</v>
       </c>
@@ -6285,10 +6285,10 @@
         <v>1203</v>
       </c>
       <c r="I69" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1917</v>
       </c>
@@ -6311,10 +6311,10 @@
         <v>1202</v>
       </c>
       <c r="I70" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1917</v>
       </c>
@@ -6337,10 +6337,10 @@
         <v>1204</v>
       </c>
       <c r="I71" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1917</v>
       </c>
@@ -6363,10 +6363,10 @@
         <v>1206</v>
       </c>
       <c r="I72" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1917</v>
       </c>
@@ -6389,10 +6389,10 @@
         <v>1208</v>
       </c>
       <c r="I73" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1917</v>
       </c>
@@ -6415,10 +6415,10 @@
         <v>1208</v>
       </c>
       <c r="I74" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1917</v>
       </c>
@@ -6441,10 +6441,10 @@
         <v>1209</v>
       </c>
       <c r="I75" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1917</v>
       </c>
@@ -6467,10 +6467,10 @@
         <v>1209</v>
       </c>
       <c r="I76" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1917</v>
       </c>
@@ -6493,10 +6493,10 @@
         <v>1212</v>
       </c>
       <c r="I77" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1917</v>
       </c>
@@ -6519,13 +6519,13 @@
         <v>1213</v>
       </c>
       <c r="I78" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J78" t="s">
         <v>1352</v>
       </c>
-      <c r="J78" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1917</v>
       </c>
@@ -6548,13 +6548,13 @@
         <v>1213</v>
       </c>
       <c r="I79" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J79" t="s">
         <v>1352</v>
       </c>
-      <c r="J79" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1917</v>
       </c>
@@ -6574,13 +6574,13 @@
         <v>978</v>
       </c>
       <c r="H80" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I80" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1917</v>
       </c>
@@ -6603,10 +6603,10 @@
         <v>1216</v>
       </c>
       <c r="I81" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1917</v>
       </c>
@@ -6629,10 +6629,10 @@
         <v>1216</v>
       </c>
       <c r="I82" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1917</v>
       </c>
@@ -6655,10 +6655,10 @@
         <v>1216</v>
       </c>
       <c r="I83" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1917</v>
       </c>
@@ -6681,10 +6681,10 @@
         <v>1216</v>
       </c>
       <c r="I84" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1917</v>
       </c>
@@ -6707,10 +6707,10 @@
         <v>1309</v>
       </c>
       <c r="I85" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1917</v>
       </c>
@@ -6733,10 +6733,10 @@
         <v>1217</v>
       </c>
       <c r="I86" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1917</v>
       </c>
@@ -6759,10 +6759,10 @@
         <v>1217</v>
       </c>
       <c r="I87" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1917</v>
       </c>
@@ -6785,10 +6785,10 @@
         <v>1218</v>
       </c>
       <c r="I88" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1917</v>
       </c>
@@ -6808,13 +6808,13 @@
         <v>986</v>
       </c>
       <c r="H89" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="I89" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1917</v>
       </c>
@@ -6834,13 +6834,13 @@
         <v>987</v>
       </c>
       <c r="H90" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="I90" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1917</v>
       </c>
@@ -6860,13 +6860,13 @@
         <v>982</v>
       </c>
       <c r="H91" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="I91" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1917</v>
       </c>
@@ -6889,10 +6889,10 @@
         <v>1219</v>
       </c>
       <c r="I92" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1917</v>
       </c>
@@ -6915,10 +6915,10 @@
         <v>1219</v>
       </c>
       <c r="I93" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1917</v>
       </c>
@@ -6938,13 +6938,13 @@
         <v>936</v>
       </c>
       <c r="H94" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I94" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1917</v>
       </c>
@@ -6964,13 +6964,13 @@
         <v>988</v>
       </c>
       <c r="H95" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I95" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1917</v>
       </c>
@@ -6990,10 +6990,10 @@
         <v>983</v>
       </c>
       <c r="H96" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1917</v>
       </c>
@@ -7013,10 +7013,10 @@
         <v>989</v>
       </c>
       <c r="H97" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1917</v>
       </c>
@@ -7036,10 +7036,10 @@
         <v>990</v>
       </c>
       <c r="H98" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1917</v>
       </c>
@@ -7059,10 +7059,10 @@
         <v>991</v>
       </c>
       <c r="H99" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1917</v>
       </c>
@@ -7085,10 +7085,10 @@
         <v>1220</v>
       </c>
       <c r="I100" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1917</v>
       </c>
@@ -7111,10 +7111,10 @@
         <v>1220</v>
       </c>
       <c r="I101" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1917</v>
       </c>
@@ -7137,10 +7137,10 @@
         <v>1220</v>
       </c>
       <c r="I102" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1917</v>
       </c>
@@ -7163,10 +7163,10 @@
         <v>1220</v>
       </c>
       <c r="I103" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1917</v>
       </c>
@@ -7189,10 +7189,10 @@
         <v>1220</v>
       </c>
       <c r="I104" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1917</v>
       </c>
@@ -7215,10 +7215,10 @@
         <v>1220</v>
       </c>
       <c r="I105" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1917</v>
       </c>
@@ -7238,13 +7238,13 @@
         <v>997</v>
       </c>
       <c r="H106" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I106" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1917</v>
       </c>
@@ -7264,13 +7264,13 @@
         <v>998</v>
       </c>
       <c r="H107" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I107" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1917</v>
       </c>
@@ -7293,10 +7293,10 @@
         <v>1221</v>
       </c>
       <c r="I108" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1917</v>
       </c>
@@ -7319,10 +7319,10 @@
         <v>1221</v>
       </c>
       <c r="I109" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1917</v>
       </c>
@@ -7345,10 +7345,10 @@
         <v>1221</v>
       </c>
       <c r="I110" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1917</v>
       </c>
@@ -7371,10 +7371,10 @@
         <v>1222</v>
       </c>
       <c r="I111" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1917</v>
       </c>
@@ -7397,10 +7397,10 @@
         <v>1222</v>
       </c>
       <c r="I112" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1917</v>
       </c>
@@ -7423,10 +7423,10 @@
         <v>1223</v>
       </c>
       <c r="I113" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1917</v>
       </c>
@@ -7449,10 +7449,10 @@
         <v>1223</v>
       </c>
       <c r="I114" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1917</v>
       </c>
@@ -7472,13 +7472,13 @@
         <v>1006</v>
       </c>
       <c r="H115" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I115" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1917</v>
       </c>
@@ -7501,10 +7501,10 @@
         <v>1224</v>
       </c>
       <c r="I116" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1917</v>
       </c>
@@ -7527,10 +7527,10 @@
         <v>1224</v>
       </c>
       <c r="I117" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1917</v>
       </c>
@@ -7553,10 +7553,10 @@
         <v>1224</v>
       </c>
       <c r="I118" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1917</v>
       </c>
@@ -7579,10 +7579,10 @@
         <v>1225</v>
       </c>
       <c r="I119" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1917</v>
       </c>
@@ -7605,10 +7605,10 @@
         <v>1225</v>
       </c>
       <c r="I120" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1917</v>
       </c>
@@ -7628,13 +7628,13 @@
         <v>936</v>
       </c>
       <c r="H121" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="I121" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1917</v>
       </c>
@@ -7657,10 +7657,10 @@
         <v>1226</v>
       </c>
       <c r="I122" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1917</v>
       </c>
@@ -7683,10 +7683,10 @@
         <v>1226</v>
       </c>
       <c r="I123" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1917</v>
       </c>
@@ -7709,10 +7709,10 @@
         <v>1227</v>
       </c>
       <c r="I124" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1917</v>
       </c>
@@ -7735,10 +7735,10 @@
         <v>1228</v>
       </c>
       <c r="I125" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1917</v>
       </c>
@@ -7761,10 +7761,10 @@
         <v>1227</v>
       </c>
       <c r="I126" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1917</v>
       </c>
@@ -7784,13 +7784,13 @@
         <v>1010</v>
       </c>
       <c r="H127" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="I127" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1917</v>
       </c>
@@ -7810,13 +7810,13 @@
         <v>960</v>
       </c>
       <c r="H128" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="I128" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1917</v>
       </c>
@@ -7836,13 +7836,13 @@
         <v>922</v>
       </c>
       <c r="H129" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="I129" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1917</v>
       </c>
@@ -7862,13 +7862,13 @@
         <v>922</v>
       </c>
       <c r="H130" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="I130" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1917</v>
       </c>
@@ -7888,13 +7888,13 @@
         <v>1011</v>
       </c>
       <c r="H131" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I131" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1917</v>
       </c>
@@ -7914,13 +7914,13 @@
         <v>1012</v>
       </c>
       <c r="H132" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I132" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1917</v>
       </c>
@@ -7943,10 +7943,10 @@
         <v>1229</v>
       </c>
       <c r="I133" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1917</v>
       </c>
@@ -7969,10 +7969,10 @@
         <v>1229</v>
       </c>
       <c r="I134" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1917</v>
       </c>
@@ -7995,10 +7995,10 @@
         <v>1229</v>
       </c>
       <c r="I135" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1917</v>
       </c>
@@ -8021,10 +8021,10 @@
         <v>1230</v>
       </c>
       <c r="I136" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1917</v>
       </c>
@@ -8047,10 +8047,10 @@
         <v>1231</v>
       </c>
       <c r="I137" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1917</v>
       </c>
@@ -8073,10 +8073,10 @@
         <v>1310</v>
       </c>
       <c r="I138" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1917</v>
       </c>
@@ -8099,10 +8099,10 @@
         <v>1233</v>
       </c>
       <c r="I139" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1917</v>
       </c>
@@ -8125,10 +8125,10 @@
         <v>1311</v>
       </c>
       <c r="I140" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1917</v>
       </c>
@@ -8151,10 +8151,10 @@
         <v>1311</v>
       </c>
       <c r="I141" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1917</v>
       </c>
@@ -8177,10 +8177,10 @@
         <v>1234</v>
       </c>
       <c r="I142" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1917</v>
       </c>
@@ -8203,10 +8203,10 @@
         <v>1235</v>
       </c>
       <c r="I143" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1917</v>
       </c>
@@ -8229,13 +8229,13 @@
         <v>1236</v>
       </c>
       <c r="I144" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J144" t="s">
         <v>1352</v>
       </c>
-      <c r="J144" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1917</v>
       </c>
@@ -8258,13 +8258,13 @@
         <v>1236</v>
       </c>
       <c r="I145" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J145" t="s">
         <v>1352</v>
       </c>
-      <c r="J145" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1917</v>
       </c>
@@ -8287,10 +8287,10 @@
         <v>1237</v>
       </c>
       <c r="I146" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1917</v>
       </c>
@@ -8313,10 +8313,10 @@
         <v>1238</v>
       </c>
       <c r="I147" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1917</v>
       </c>
@@ -8339,10 +8339,10 @@
         <v>1238</v>
       </c>
       <c r="I148" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1917</v>
       </c>
@@ -8362,13 +8362,13 @@
         <v>1017</v>
       </c>
       <c r="H149" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="I149" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1917</v>
       </c>
@@ -8388,13 +8388,13 @@
         <v>1018</v>
       </c>
       <c r="H150" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="I150" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1917</v>
       </c>
@@ -8417,10 +8417,10 @@
         <v>1312</v>
       </c>
       <c r="I151" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1917</v>
       </c>
@@ -8440,13 +8440,13 @@
         <v>922</v>
       </c>
       <c r="H152" t="s">
-        <v>1313</v>
+        <v>1365</v>
       </c>
       <c r="I152" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1917</v>
       </c>
@@ -8466,13 +8466,13 @@
         <v>922</v>
       </c>
       <c r="H153" t="s">
-        <v>1313</v>
+        <v>1365</v>
       </c>
       <c r="I153" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1917</v>
       </c>
@@ -8495,10 +8495,10 @@
         <v>1239</v>
       </c>
       <c r="I154" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1917</v>
       </c>
@@ -8521,10 +8521,10 @@
         <v>1239</v>
       </c>
       <c r="I155" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1917</v>
       </c>
@@ -8544,13 +8544,13 @@
         <v>936</v>
       </c>
       <c r="H156" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="I156" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1917</v>
       </c>
@@ -8573,10 +8573,10 @@
         <v>1240</v>
       </c>
       <c r="I157" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1917</v>
       </c>
@@ -8599,10 +8599,10 @@
         <v>1240</v>
       </c>
       <c r="I158" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1917</v>
       </c>
@@ -8625,10 +8625,10 @@
         <v>1240</v>
       </c>
       <c r="I159" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1917</v>
       </c>
@@ -8651,10 +8651,10 @@
         <v>1241</v>
       </c>
       <c r="I160" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1917</v>
       </c>
@@ -8677,10 +8677,10 @@
         <v>1241</v>
       </c>
       <c r="I161" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1917</v>
       </c>
@@ -8703,10 +8703,10 @@
         <v>1241</v>
       </c>
       <c r="I162" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1917</v>
       </c>
@@ -8726,13 +8726,13 @@
         <v>937</v>
       </c>
       <c r="H163" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="I163" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1917</v>
       </c>
@@ -8752,13 +8752,13 @@
         <v>936</v>
       </c>
       <c r="H164" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="I164" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1917</v>
       </c>
@@ -8778,13 +8778,13 @@
         <v>922</v>
       </c>
       <c r="H165" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="I165" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1917</v>
       </c>
@@ -8804,13 +8804,13 @@
         <v>936</v>
       </c>
       <c r="H166" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="I166" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1917</v>
       </c>
@@ -8830,13 +8830,13 @@
         <v>922</v>
       </c>
       <c r="H167" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="I167" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1917</v>
       </c>
@@ -8856,13 +8856,13 @@
         <v>1023</v>
       </c>
       <c r="H168" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I168" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1917</v>
       </c>
@@ -8882,19 +8882,19 @@
         <v>1024</v>
       </c>
       <c r="H169" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I169" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="K169" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="L169" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1917</v>
       </c>
@@ -8914,13 +8914,13 @@
         <v>1025</v>
       </c>
       <c r="H170" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I170" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1917</v>
       </c>
@@ -8940,13 +8940,13 @@
         <v>1026</v>
       </c>
       <c r="H171" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I171" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1917</v>
       </c>
@@ -8966,13 +8966,13 @@
         <v>1027</v>
       </c>
       <c r="H172" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I172" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1917</v>
       </c>
@@ -8992,13 +8992,13 @@
         <v>940</v>
       </c>
       <c r="H173" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I173" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1917</v>
       </c>
@@ -9021,10 +9021,10 @@
         <v>1242</v>
       </c>
       <c r="I174" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1917</v>
       </c>
@@ -9047,10 +9047,10 @@
         <v>1242</v>
       </c>
       <c r="I175" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1917</v>
       </c>
@@ -9073,10 +9073,10 @@
         <v>1242</v>
       </c>
       <c r="I176" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1917</v>
       </c>
@@ -9099,10 +9099,10 @@
         <v>1242</v>
       </c>
       <c r="I177" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1917</v>
       </c>
@@ -9125,10 +9125,10 @@
         <v>1242</v>
       </c>
       <c r="I178" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1917</v>
       </c>
@@ -9151,10 +9151,10 @@
         <v>1243</v>
       </c>
       <c r="I179" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1917</v>
       </c>
@@ -9177,10 +9177,10 @@
         <v>1243</v>
       </c>
       <c r="I180" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1917</v>
       </c>
@@ -9200,13 +9200,13 @@
         <v>1030</v>
       </c>
       <c r="H181" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I181" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1917</v>
       </c>
@@ -9226,13 +9226,13 @@
         <v>1031</v>
       </c>
       <c r="H182" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I182" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1917</v>
       </c>
@@ -9252,13 +9252,13 @@
         <v>1032</v>
       </c>
       <c r="H183" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I183" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1917</v>
       </c>
@@ -9278,13 +9278,13 @@
         <v>936</v>
       </c>
       <c r="H184" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I184" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1917</v>
       </c>
@@ -9307,10 +9307,10 @@
         <v>1244</v>
       </c>
       <c r="I185" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1917</v>
       </c>
@@ -9333,10 +9333,10 @@
         <v>1245</v>
       </c>
       <c r="I186" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1917</v>
       </c>
@@ -9359,10 +9359,10 @@
         <v>1245</v>
       </c>
       <c r="I187" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1917</v>
       </c>
@@ -9385,10 +9385,10 @@
         <v>1245</v>
       </c>
       <c r="I188" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1917</v>
       </c>
@@ -9411,10 +9411,10 @@
         <v>1245</v>
       </c>
       <c r="I189" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1917</v>
       </c>
@@ -9434,13 +9434,13 @@
         <v>1037</v>
       </c>
       <c r="H190" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I190" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1917</v>
       </c>
@@ -9460,13 +9460,13 @@
         <v>1038</v>
       </c>
       <c r="H191" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I191" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1917</v>
       </c>
@@ -9486,13 +9486,13 @@
         <v>1039</v>
       </c>
       <c r="H192" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I192" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1917</v>
       </c>
@@ -9512,13 +9512,13 @@
         <v>1040</v>
       </c>
       <c r="H193" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I193" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1917</v>
       </c>
@@ -9538,13 +9538,13 @@
         <v>1038</v>
       </c>
       <c r="H194" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I194" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1917</v>
       </c>
@@ -9564,13 +9564,13 @@
         <v>1041</v>
       </c>
       <c r="H195" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I195" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1917</v>
       </c>
@@ -9590,13 +9590,13 @@
         <v>1042</v>
       </c>
       <c r="H196" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I196" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1917</v>
       </c>
@@ -9616,13 +9616,13 @@
         <v>1043</v>
       </c>
       <c r="H197" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I197" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1917</v>
       </c>
@@ -9642,13 +9642,13 @@
         <v>1044</v>
       </c>
       <c r="H198" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I198" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1917</v>
       </c>
@@ -9671,10 +9671,10 @@
         <v>1246</v>
       </c>
       <c r="I199" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1917</v>
       </c>
@@ -9697,10 +9697,10 @@
         <v>1246</v>
       </c>
       <c r="I200" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1917</v>
       </c>
@@ -9723,10 +9723,10 @@
         <v>1246</v>
       </c>
       <c r="I201" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1917</v>
       </c>
@@ -9749,10 +9749,10 @@
         <v>1246</v>
       </c>
       <c r="I202" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1917</v>
       </c>
@@ -9775,10 +9775,10 @@
         <v>1247</v>
       </c>
       <c r="I203" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1917</v>
       </c>
@@ -9801,10 +9801,10 @@
         <v>1248</v>
       </c>
       <c r="I204" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1917</v>
       </c>
@@ -9827,10 +9827,10 @@
         <v>1248</v>
       </c>
       <c r="I205" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1917</v>
       </c>
@@ -9853,10 +9853,10 @@
         <v>1248</v>
       </c>
       <c r="I206" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1917</v>
       </c>
@@ -9879,10 +9879,10 @@
         <v>1248</v>
       </c>
       <c r="I207" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1917</v>
       </c>
@@ -9905,13 +9905,13 @@
         <v>1249</v>
       </c>
       <c r="I208" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="J208" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1917</v>
       </c>
@@ -9934,13 +9934,13 @@
         <v>1249</v>
       </c>
       <c r="I209" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="J209" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1917</v>
       </c>
@@ -9963,13 +9963,13 @@
         <v>1249</v>
       </c>
       <c r="I210" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="J210" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1917</v>
       </c>
@@ -9992,10 +9992,10 @@
         <v>1250</v>
       </c>
       <c r="I211" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1917</v>
       </c>
@@ -10018,10 +10018,10 @@
         <v>1250</v>
       </c>
       <c r="I212" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1917</v>
       </c>
@@ -10044,10 +10044,10 @@
         <v>1250</v>
       </c>
       <c r="I213" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1917</v>
       </c>
@@ -10070,10 +10070,10 @@
         <v>1250</v>
       </c>
       <c r="I214" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1917</v>
       </c>
@@ -10093,13 +10093,13 @@
         <v>974</v>
       </c>
       <c r="H215" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I215" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1917</v>
       </c>
@@ -10119,13 +10119,13 @@
         <v>1038</v>
       </c>
       <c r="H216" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I216" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1917</v>
       </c>
@@ -10148,13 +10148,13 @@
         <v>1251</v>
       </c>
       <c r="I217" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J217" t="s">
         <v>1352</v>
       </c>
-      <c r="J217" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1917</v>
       </c>
@@ -10177,13 +10177,13 @@
         <v>1251</v>
       </c>
       <c r="I218" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J218" t="s">
         <v>1352</v>
       </c>
-      <c r="J218" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1917</v>
       </c>
@@ -10206,13 +10206,13 @@
         <v>1251</v>
       </c>
       <c r="I219" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J219" t="s">
         <v>1352</v>
       </c>
-      <c r="J219" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1917</v>
       </c>
@@ -10235,13 +10235,13 @@
         <v>1251</v>
       </c>
       <c r="I220" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J220" t="s">
         <v>1352</v>
       </c>
-      <c r="J220" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1917</v>
       </c>
@@ -10264,13 +10264,13 @@
         <v>1251</v>
       </c>
       <c r="I221" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J221" t="s">
         <v>1352</v>
       </c>
-      <c r="J221" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1917</v>
       </c>
@@ -10293,10 +10293,10 @@
         <v>1252</v>
       </c>
       <c r="I222" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1917</v>
       </c>
@@ -10319,10 +10319,10 @@
         <v>1252</v>
       </c>
       <c r="I223" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1917</v>
       </c>
@@ -10345,10 +10345,10 @@
         <v>1253</v>
       </c>
       <c r="I224" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1917</v>
       </c>
@@ -10371,10 +10371,10 @@
         <v>1253</v>
       </c>
       <c r="I225" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1917</v>
       </c>
@@ -10397,10 +10397,10 @@
         <v>1254</v>
       </c>
       <c r="I226" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1917</v>
       </c>
@@ -10423,10 +10423,10 @@
         <v>1254</v>
       </c>
       <c r="I227" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1917</v>
       </c>
@@ -10449,10 +10449,10 @@
         <v>1254</v>
       </c>
       <c r="I228" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1917</v>
       </c>
@@ -10475,10 +10475,10 @@
         <v>1253</v>
       </c>
       <c r="I229" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1917</v>
       </c>
@@ -10501,10 +10501,10 @@
         <v>1199</v>
       </c>
       <c r="I230" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1917</v>
       </c>
@@ -10527,10 +10527,10 @@
         <v>1199</v>
       </c>
       <c r="I231" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1917</v>
       </c>
@@ -10553,10 +10553,10 @@
         <v>1255</v>
       </c>
       <c r="I232" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1917</v>
       </c>
@@ -10579,10 +10579,10 @@
         <v>1255</v>
       </c>
       <c r="I233" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1917</v>
       </c>
@@ -10605,10 +10605,10 @@
         <v>1256</v>
       </c>
       <c r="I234" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1917</v>
       </c>
@@ -10628,13 +10628,13 @@
         <v>1070</v>
       </c>
       <c r="H235" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="I235" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1917</v>
       </c>
@@ -10654,13 +10654,13 @@
         <v>1071</v>
       </c>
       <c r="H236" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="I236" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1917</v>
       </c>
@@ -10680,13 +10680,13 @@
         <v>1072</v>
       </c>
       <c r="H237" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I237" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1917</v>
       </c>
@@ -10709,10 +10709,10 @@
         <v>1199</v>
       </c>
       <c r="I238" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1917</v>
       </c>
@@ -10735,10 +10735,10 @@
         <v>1199</v>
       </c>
       <c r="I239" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1917</v>
       </c>
@@ -10761,10 +10761,10 @@
         <v>1256</v>
       </c>
       <c r="I240" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1917</v>
       </c>
@@ -10787,10 +10787,10 @@
         <v>1253</v>
       </c>
       <c r="I241" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1917</v>
       </c>
@@ -10810,13 +10810,13 @@
         <v>1075</v>
       </c>
       <c r="H242" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="I242" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1917</v>
       </c>
@@ -10839,10 +10839,10 @@
         <v>1253</v>
       </c>
       <c r="I243" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1917</v>
       </c>
@@ -10865,10 +10865,10 @@
         <v>1253</v>
       </c>
       <c r="I244" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1917</v>
       </c>
@@ -10888,13 +10888,13 @@
         <v>1077</v>
       </c>
       <c r="H245" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="I245" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1917</v>
       </c>
@@ -10917,10 +10917,10 @@
         <v>1257</v>
       </c>
       <c r="I246" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1917</v>
       </c>
@@ -10943,10 +10943,10 @@
         <v>1258</v>
       </c>
       <c r="I247" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1917</v>
       </c>
@@ -10969,10 +10969,10 @@
         <v>1258</v>
       </c>
       <c r="I248" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1917</v>
       </c>
@@ -10995,10 +10995,10 @@
         <v>1258</v>
       </c>
       <c r="I249" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1917</v>
       </c>
@@ -11021,10 +11021,10 @@
         <v>1258</v>
       </c>
       <c r="I250" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1917</v>
       </c>
@@ -11047,10 +11047,10 @@
         <v>1258</v>
       </c>
       <c r="I251" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1917</v>
       </c>
@@ -11073,10 +11073,10 @@
         <v>1194</v>
       </c>
       <c r="I252" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1917</v>
       </c>
@@ -11099,10 +11099,10 @@
         <v>1194</v>
       </c>
       <c r="I253" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1917</v>
       </c>
@@ -11125,10 +11125,10 @@
         <v>1259</v>
       </c>
       <c r="I254" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1917</v>
       </c>
@@ -11151,10 +11151,10 @@
         <v>1259</v>
       </c>
       <c r="I255" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1917</v>
       </c>
@@ -11174,13 +11174,13 @@
         <v>936</v>
       </c>
       <c r="H256" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I256" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1917</v>
       </c>
@@ -11203,10 +11203,10 @@
         <v>1260</v>
       </c>
       <c r="I257" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1917</v>
       </c>
@@ -11229,10 +11229,10 @@
         <v>1260</v>
       </c>
       <c r="I258" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1917</v>
       </c>
@@ -11255,10 +11255,10 @@
         <v>1259</v>
       </c>
       <c r="I259" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1917</v>
       </c>
@@ -11281,10 +11281,10 @@
         <v>1259</v>
       </c>
       <c r="I260" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1917</v>
       </c>
@@ -11304,13 +11304,13 @@
         <v>936</v>
       </c>
       <c r="H261" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I261" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1917</v>
       </c>
@@ -11330,13 +11330,13 @@
         <v>1087</v>
       </c>
       <c r="H262" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I262" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1917</v>
       </c>
@@ -11359,10 +11359,10 @@
         <v>1261</v>
       </c>
       <c r="I263" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1917</v>
       </c>
@@ -11385,10 +11385,10 @@
         <v>1262</v>
       </c>
       <c r="I264" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1917</v>
       </c>
@@ -11408,13 +11408,13 @@
         <v>919</v>
       </c>
       <c r="H265" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="I265" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1917</v>
       </c>
@@ -11437,10 +11437,10 @@
         <v>1259</v>
       </c>
       <c r="I266" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1917</v>
       </c>
@@ -11463,10 +11463,10 @@
         <v>1259</v>
       </c>
       <c r="I267" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1917</v>
       </c>
@@ -11489,10 +11489,10 @@
         <v>1261</v>
       </c>
       <c r="I268" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1917</v>
       </c>
@@ -11512,13 +11512,13 @@
         <v>1091</v>
       </c>
       <c r="H269" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="I269" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1917</v>
       </c>
@@ -11541,10 +11541,10 @@
         <v>1262</v>
       </c>
       <c r="I270" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1917</v>
       </c>
@@ -11567,10 +11567,10 @@
         <v>1259</v>
       </c>
       <c r="I271" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1917</v>
       </c>
@@ -11590,13 +11590,13 @@
         <v>1092</v>
       </c>
       <c r="H272" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I272" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1917</v>
       </c>
@@ -11616,13 +11616,13 @@
         <v>921</v>
       </c>
       <c r="H273" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I273" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1917</v>
       </c>
@@ -11645,10 +11645,10 @@
         <v>1263</v>
       </c>
       <c r="I274" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1917</v>
       </c>
@@ -11671,10 +11671,10 @@
         <v>1263</v>
       </c>
       <c r="I275" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1917</v>
       </c>
@@ -11697,10 +11697,10 @@
         <v>1263</v>
       </c>
       <c r="I276" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1917</v>
       </c>
@@ -11723,10 +11723,10 @@
         <v>1263</v>
       </c>
       <c r="I277" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1917</v>
       </c>
@@ -11746,13 +11746,13 @@
         <v>1093</v>
       </c>
       <c r="H278" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="I278" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1917</v>
       </c>
@@ -11775,10 +11775,10 @@
         <v>1264</v>
       </c>
       <c r="I279" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1917</v>
       </c>
@@ -11801,10 +11801,10 @@
         <v>1264</v>
       </c>
       <c r="I280" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1917</v>
       </c>
@@ -11824,13 +11824,13 @@
         <v>1042</v>
       </c>
       <c r="H281" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I281" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1917</v>
       </c>
@@ -11850,13 +11850,13 @@
         <v>1096</v>
       </c>
       <c r="H282" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="I282" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1917</v>
       </c>
@@ -11876,13 +11876,13 @@
         <v>920</v>
       </c>
       <c r="H283" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I283" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1917</v>
       </c>
@@ -11902,13 +11902,13 @@
         <v>1028</v>
       </c>
       <c r="H284" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I284" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1917</v>
       </c>
@@ -11931,10 +11931,10 @@
         <v>1265</v>
       </c>
       <c r="I285" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1917</v>
       </c>
@@ -11957,13 +11957,13 @@
         <v>1266</v>
       </c>
       <c r="I286" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="J286" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1917</v>
       </c>
@@ -11986,13 +11986,13 @@
         <v>1266</v>
       </c>
       <c r="I287" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="J287" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1917</v>
       </c>
@@ -12015,13 +12015,13 @@
         <v>1266</v>
       </c>
       <c r="I288" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="J288" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1917</v>
       </c>
@@ -12044,10 +12044,10 @@
         <v>1267</v>
       </c>
       <c r="I289" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1917</v>
       </c>
@@ -12070,10 +12070,10 @@
         <v>1267</v>
       </c>
       <c r="I290" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1917</v>
       </c>
@@ -12096,10 +12096,10 @@
         <v>1267</v>
       </c>
       <c r="I291" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1917</v>
       </c>
@@ -12119,13 +12119,13 @@
         <v>922</v>
       </c>
       <c r="H292" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I292" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1917</v>
       </c>
@@ -12145,13 +12145,13 @@
         <v>922</v>
       </c>
       <c r="H293" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I293" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1917</v>
       </c>
@@ -12174,10 +12174,10 @@
         <v>1268</v>
       </c>
       <c r="I294" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1917</v>
       </c>
@@ -12200,13 +12200,13 @@
         <v>1266</v>
       </c>
       <c r="I295" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="J295" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1917</v>
       </c>
@@ -12229,13 +12229,13 @@
         <v>1266</v>
       </c>
       <c r="I296" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="J296" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1917</v>
       </c>
@@ -12258,10 +12258,10 @@
         <v>1263</v>
       </c>
       <c r="I297" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1917</v>
       </c>
@@ -12284,10 +12284,10 @@
         <v>1263</v>
       </c>
       <c r="I298" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1917</v>
       </c>
@@ -12307,13 +12307,13 @@
         <v>1101</v>
       </c>
       <c r="H299" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I299" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1917</v>
       </c>
@@ -12336,13 +12336,13 @@
         <v>1266</v>
       </c>
       <c r="I300" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="J300" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1917</v>
       </c>
@@ -12365,10 +12365,10 @@
         <v>1269</v>
       </c>
       <c r="I301" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1917</v>
       </c>
@@ -12394,10 +12394,10 @@
         <v>1269</v>
       </c>
       <c r="I302" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1917</v>
       </c>
@@ -12423,10 +12423,10 @@
         <v>1269</v>
       </c>
       <c r="I303" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1917</v>
       </c>
@@ -12449,10 +12449,10 @@
         <v>1269</v>
       </c>
       <c r="I304" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1917</v>
       </c>
@@ -12475,10 +12475,10 @@
         <v>1269</v>
       </c>
       <c r="I305" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1917</v>
       </c>
@@ -12501,10 +12501,10 @@
         <v>1270</v>
       </c>
       <c r="I306" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1917</v>
       </c>
@@ -12527,10 +12527,10 @@
         <v>1270</v>
       </c>
       <c r="I307" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1917</v>
       </c>
@@ -12553,10 +12553,10 @@
         <v>1271</v>
       </c>
       <c r="I308" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1917</v>
       </c>
@@ -12579,10 +12579,10 @@
         <v>1271</v>
       </c>
       <c r="I309" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1917</v>
       </c>
@@ -12605,10 +12605,10 @@
         <v>1272</v>
       </c>
       <c r="I310" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1917</v>
       </c>
@@ -12631,10 +12631,10 @@
         <v>1271</v>
       </c>
       <c r="I311" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1917</v>
       </c>
@@ -12657,10 +12657,10 @@
         <v>1272</v>
       </c>
       <c r="I312" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1917</v>
       </c>
@@ -12683,10 +12683,10 @@
         <v>1272</v>
       </c>
       <c r="I313" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1917</v>
       </c>
@@ -12709,10 +12709,10 @@
         <v>1273</v>
       </c>
       <c r="I314" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1917</v>
       </c>
@@ -12735,10 +12735,10 @@
         <v>1270</v>
       </c>
       <c r="I315" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1917</v>
       </c>
@@ -12761,10 +12761,10 @@
         <v>1274</v>
       </c>
       <c r="I316" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1917</v>
       </c>
@@ -12787,10 +12787,10 @@
         <v>1274</v>
       </c>
       <c r="I317" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1917</v>
       </c>
@@ -12813,10 +12813,10 @@
         <v>1273</v>
       </c>
       <c r="I318" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1917</v>
       </c>
@@ -12839,10 +12839,10 @@
         <v>1270</v>
       </c>
       <c r="I319" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1917</v>
       </c>
@@ -12865,10 +12865,10 @@
         <v>1271</v>
       </c>
       <c r="I320" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1917</v>
       </c>
@@ -12888,13 +12888,13 @@
         <v>1113</v>
       </c>
       <c r="H321" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I321" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1917</v>
       </c>
@@ -12914,13 +12914,13 @@
         <v>1114</v>
       </c>
       <c r="H322" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I322" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1917</v>
       </c>
@@ -12943,10 +12943,10 @@
         <v>1275</v>
       </c>
       <c r="I323" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1917</v>
       </c>
@@ -12966,13 +12966,13 @@
         <v>1028</v>
       </c>
       <c r="H324" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I324" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1917</v>
       </c>
@@ -12992,13 +12992,13 @@
         <v>964</v>
       </c>
       <c r="H325" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I325" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1917</v>
       </c>
@@ -13021,10 +13021,10 @@
         <v>1276</v>
       </c>
       <c r="I326" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1917</v>
       </c>
@@ -13047,10 +13047,10 @@
         <v>1275</v>
       </c>
       <c r="I327" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1917</v>
       </c>
@@ -13070,13 +13070,13 @@
         <v>1117</v>
       </c>
       <c r="H328" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I328" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1917</v>
       </c>
@@ -13096,13 +13096,13 @@
         <v>1118</v>
       </c>
       <c r="H329" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I329" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1917</v>
       </c>
@@ -13125,13 +13125,13 @@
         <v>1119</v>
       </c>
       <c r="H330" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I330" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1917</v>
       </c>
@@ -13154,10 +13154,10 @@
         <v>1277</v>
       </c>
       <c r="I331" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1917</v>
       </c>
@@ -13180,10 +13180,10 @@
         <v>1278</v>
       </c>
       <c r="I332" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1917</v>
       </c>
@@ -13203,13 +13203,13 @@
         <v>1122</v>
       </c>
       <c r="H333" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I333" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1917</v>
       </c>
@@ -13229,13 +13229,13 @@
         <v>932</v>
       </c>
       <c r="H334" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I334" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1917</v>
       </c>
@@ -13258,10 +13258,10 @@
         <v>1275</v>
       </c>
       <c r="I335" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1917</v>
       </c>
@@ -13281,13 +13281,13 @@
         <v>1124</v>
       </c>
       <c r="H336" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I336" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1917</v>
       </c>
@@ -13310,10 +13310,10 @@
         <v>1232</v>
       </c>
       <c r="I337" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1917</v>
       </c>
@@ -13336,10 +13336,10 @@
         <v>1262</v>
       </c>
       <c r="I338" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1917</v>
       </c>
@@ -13362,10 +13362,10 @@
         <v>1262</v>
       </c>
       <c r="I339" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1917</v>
       </c>
@@ -13385,13 +13385,13 @@
         <v>958</v>
       </c>
       <c r="H340" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="I340" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1917</v>
       </c>
@@ -13414,10 +13414,10 @@
         <v>1232</v>
       </c>
       <c r="I341" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1917</v>
       </c>
@@ -13440,10 +13440,10 @@
         <v>1279</v>
       </c>
       <c r="I342" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1917</v>
       </c>
@@ -13466,10 +13466,10 @@
         <v>1279</v>
       </c>
       <c r="I343" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1917</v>
       </c>
@@ -13492,10 +13492,10 @@
         <v>1280</v>
       </c>
       <c r="I344" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1917</v>
       </c>
@@ -13518,10 +13518,10 @@
         <v>1281</v>
       </c>
       <c r="I345" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1917</v>
       </c>
@@ -13544,10 +13544,10 @@
         <v>1281</v>
       </c>
       <c r="I346" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1917</v>
       </c>
@@ -13570,10 +13570,10 @@
         <v>1281</v>
       </c>
       <c r="I347" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1917</v>
       </c>
@@ -13596,10 +13596,10 @@
         <v>1282</v>
       </c>
       <c r="I348" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1917</v>
       </c>
@@ -13622,10 +13622,10 @@
         <v>1282</v>
       </c>
       <c r="I349" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1917</v>
       </c>
@@ -13648,10 +13648,10 @@
         <v>1282</v>
       </c>
       <c r="I350" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1917</v>
       </c>
@@ -13674,10 +13674,10 @@
         <v>1283</v>
       </c>
       <c r="I351" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1917</v>
       </c>
@@ -13697,13 +13697,13 @@
         <v>921</v>
       </c>
       <c r="H352" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I352" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1917</v>
       </c>
@@ -13723,13 +13723,13 @@
         <v>936</v>
       </c>
       <c r="H353" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I353" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1917</v>
       </c>
@@ -13749,13 +13749,13 @@
         <v>1132</v>
       </c>
       <c r="H354" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I354" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1917</v>
       </c>
@@ -13775,13 +13775,13 @@
         <v>1133</v>
       </c>
       <c r="H355" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I355" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1917</v>
       </c>
@@ -13801,13 +13801,13 @@
         <v>1134</v>
       </c>
       <c r="H356" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I356" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1917</v>
       </c>
@@ -13827,19 +13827,19 @@
         <v>1042</v>
       </c>
       <c r="H357" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I357" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="K357" t="s">
         <v>1285</v>
       </c>
       <c r="L357" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1917</v>
       </c>
@@ -13862,10 +13862,10 @@
         <v>1285</v>
       </c>
       <c r="I358" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1917</v>
       </c>
@@ -13888,10 +13888,10 @@
         <v>1285</v>
       </c>
       <c r="I359" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1917</v>
       </c>
@@ -13914,10 +13914,10 @@
         <v>1285</v>
       </c>
       <c r="I360" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1917</v>
       </c>
@@ -13940,10 +13940,10 @@
         <v>1285</v>
       </c>
       <c r="I361" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1917</v>
       </c>
@@ -13966,10 +13966,10 @@
         <v>1286</v>
       </c>
       <c r="I362" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1917</v>
       </c>
@@ -13995,10 +13995,10 @@
         <v>1287</v>
       </c>
       <c r="I363" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1917</v>
       </c>
@@ -14021,10 +14021,10 @@
         <v>1287</v>
       </c>
       <c r="I364" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1917</v>
       </c>
@@ -14050,10 +14050,10 @@
         <v>1287</v>
       </c>
       <c r="I365" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1917</v>
       </c>
@@ -14073,13 +14073,13 @@
         <v>954</v>
       </c>
       <c r="H366" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="I366" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1917</v>
       </c>
@@ -14099,13 +14099,13 @@
         <v>987</v>
       </c>
       <c r="H367" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="I367" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1917</v>
       </c>
@@ -14125,13 +14125,13 @@
         <v>1141</v>
       </c>
       <c r="H368" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="I368" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1917</v>
       </c>
@@ -14151,13 +14151,13 @@
         <v>1142</v>
       </c>
       <c r="H369" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="I369" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1917</v>
       </c>
@@ -14177,13 +14177,13 @@
         <v>982</v>
       </c>
       <c r="H370" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="I370" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1917</v>
       </c>
@@ -14203,13 +14203,13 @@
         <v>1143</v>
       </c>
       <c r="H371" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="I371" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1917</v>
       </c>
@@ -14229,13 +14229,13 @@
         <v>1144</v>
       </c>
       <c r="H372" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="I372" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1917</v>
       </c>
@@ -14258,10 +14258,10 @@
         <v>1288</v>
       </c>
       <c r="I373" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1917</v>
       </c>
@@ -14284,10 +14284,10 @@
         <v>1288</v>
       </c>
       <c r="I374" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1917</v>
       </c>
@@ -14310,10 +14310,10 @@
         <v>1289</v>
       </c>
       <c r="I375" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1917</v>
       </c>
@@ -14336,10 +14336,10 @@
         <v>1289</v>
       </c>
       <c r="I376" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1917</v>
       </c>
@@ -14362,10 +14362,10 @@
         <v>1289</v>
       </c>
       <c r="I377" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1917</v>
       </c>
@@ -14388,10 +14388,10 @@
         <v>1290</v>
       </c>
       <c r="I378" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1917</v>
       </c>
@@ -14414,10 +14414,10 @@
         <v>1290</v>
       </c>
       <c r="I379" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1917</v>
       </c>
@@ -14440,10 +14440,10 @@
         <v>1291</v>
       </c>
       <c r="I380" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1917</v>
       </c>
@@ -14466,10 +14466,10 @@
         <v>1291</v>
       </c>
       <c r="I381" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1917</v>
       </c>
@@ -14492,10 +14492,10 @@
         <v>1291</v>
       </c>
       <c r="I382" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1917</v>
       </c>
@@ -14518,10 +14518,10 @@
         <v>1291</v>
       </c>
       <c r="I383" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1917</v>
       </c>
@@ -14544,10 +14544,10 @@
         <v>1292</v>
       </c>
       <c r="I384" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1917</v>
       </c>
@@ -14570,10 +14570,10 @@
         <v>1292</v>
       </c>
       <c r="I385" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1917</v>
       </c>
@@ -14596,10 +14596,10 @@
         <v>1292</v>
       </c>
       <c r="I386" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1917</v>
       </c>
@@ -14622,10 +14622,10 @@
         <v>1292</v>
       </c>
       <c r="I387" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1917</v>
       </c>
@@ -14648,10 +14648,10 @@
         <v>1292</v>
       </c>
       <c r="I388" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1917</v>
       </c>
@@ -14674,10 +14674,10 @@
         <v>1292</v>
       </c>
       <c r="I389" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1917</v>
       </c>
@@ -14700,10 +14700,10 @@
         <v>1292</v>
       </c>
       <c r="I390" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1917</v>
       </c>
@@ -14726,10 +14726,10 @@
         <v>1293</v>
       </c>
       <c r="I391" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1917</v>
       </c>
@@ -14752,10 +14752,10 @@
         <v>1293</v>
       </c>
       <c r="I392" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1917</v>
       </c>
@@ -14778,10 +14778,10 @@
         <v>1293</v>
       </c>
       <c r="I393" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1917</v>
       </c>
@@ -14804,10 +14804,10 @@
         <v>1294</v>
       </c>
       <c r="I394" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1917</v>
       </c>
@@ -14830,10 +14830,10 @@
         <v>1294</v>
       </c>
       <c r="I395" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1917</v>
       </c>
@@ -14856,10 +14856,10 @@
         <v>1294</v>
       </c>
       <c r="I396" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1917</v>
       </c>
@@ -14885,10 +14885,10 @@
         <v>1295</v>
       </c>
       <c r="I397" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1917</v>
       </c>
@@ -14914,10 +14914,10 @@
         <v>1295</v>
       </c>
       <c r="I398" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1917</v>
       </c>
@@ -14943,10 +14943,10 @@
         <v>1295</v>
       </c>
       <c r="I399" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1917</v>
       </c>
@@ -14972,10 +14972,10 @@
         <v>1295</v>
       </c>
       <c r="I400" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1917</v>
       </c>
@@ -15001,10 +15001,10 @@
         <v>1295</v>
       </c>
       <c r="I401" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1917</v>
       </c>
@@ -15030,10 +15030,10 @@
         <v>1295</v>
       </c>
       <c r="I402" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1917</v>
       </c>
@@ -15059,10 +15059,10 @@
         <v>1296</v>
       </c>
       <c r="I403" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1917</v>
       </c>
@@ -15088,10 +15088,10 @@
         <v>1296</v>
       </c>
       <c r="I404" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1917</v>
       </c>
@@ -15117,10 +15117,10 @@
         <v>1296</v>
       </c>
       <c r="I405" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1917</v>
       </c>
@@ -15146,10 +15146,10 @@
         <v>1296</v>
       </c>
       <c r="I406" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1917</v>
       </c>
@@ -15175,10 +15175,10 @@
         <v>1296</v>
       </c>
       <c r="I407" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1917</v>
       </c>
@@ -15198,13 +15198,13 @@
         <v>936</v>
       </c>
       <c r="H408" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I408" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1917</v>
       </c>
@@ -15224,13 +15224,13 @@
         <v>936</v>
       </c>
       <c r="H409" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I409" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1917</v>
       </c>
@@ -15253,10 +15253,10 @@
         <v>1212</v>
       </c>
       <c r="I410" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1917</v>
       </c>
@@ -15279,10 +15279,10 @@
         <v>1212</v>
       </c>
       <c r="I411" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1917</v>
       </c>
@@ -15305,10 +15305,10 @@
         <v>1212</v>
       </c>
       <c r="I412" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1917</v>
       </c>
@@ -15331,10 +15331,10 @@
         <v>1212</v>
       </c>
       <c r="I413" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1917</v>
       </c>
@@ -15357,16 +15357,16 @@
         <v>1212</v>
       </c>
       <c r="I414" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="K414" t="s">
         <v>1297</v>
       </c>
       <c r="L414" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1917</v>
       </c>
@@ -15389,16 +15389,16 @@
         <v>1212</v>
       </c>
       <c r="I415" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="K415" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="L415" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1917</v>
       </c>
@@ -15415,13 +15415,13 @@
         <v>875</v>
       </c>
       <c r="H416" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I416" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1917</v>
       </c>
@@ -15444,10 +15444,10 @@
         <v>1297</v>
       </c>
       <c r="I417" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1917</v>
       </c>
@@ -15467,16 +15467,16 @@
         <v>1297</v>
       </c>
       <c r="I418" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="K418" t="s">
         <v>1212</v>
       </c>
       <c r="L418" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1917</v>
       </c>
@@ -15496,13 +15496,13 @@
         <v>1173</v>
       </c>
       <c r="H419" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I419" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1917</v>
       </c>
@@ -15522,13 +15522,13 @@
         <v>1174</v>
       </c>
       <c r="H420" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I420" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1917</v>
       </c>
@@ -15548,13 +15548,13 @@
         <v>1175</v>
       </c>
       <c r="H421" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I421" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1917</v>
       </c>
@@ -15574,13 +15574,13 @@
         <v>922</v>
       </c>
       <c r="H422" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I422" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1917</v>
       </c>
@@ -15600,13 +15600,13 @@
         <v>1176</v>
       </c>
       <c r="H423" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I423" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1917</v>
       </c>
@@ -15626,13 +15626,13 @@
         <v>1177</v>
       </c>
       <c r="H424" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I424" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1917</v>
       </c>
@@ -15655,10 +15655,10 @@
         <v>1298</v>
       </c>
       <c r="I425" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1917</v>
       </c>
@@ -15681,10 +15681,10 @@
         <v>1298</v>
       </c>
       <c r="I426" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1917</v>
       </c>
@@ -15707,10 +15707,10 @@
         <v>1298</v>
       </c>
       <c r="I427" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1917</v>
       </c>
@@ -15733,10 +15733,10 @@
         <v>1298</v>
       </c>
       <c r="I428" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1917</v>
       </c>
@@ -15759,16 +15759,16 @@
         <v>1298</v>
       </c>
       <c r="I429" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="K429" t="s">
         <v>1301</v>
       </c>
       <c r="L429" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1917</v>
       </c>
@@ -15791,10 +15791,10 @@
         <v>1299</v>
       </c>
       <c r="I430" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1917</v>
       </c>
@@ -15817,10 +15817,10 @@
         <v>1299</v>
       </c>
       <c r="I431" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1917</v>
       </c>
@@ -15843,10 +15843,10 @@
         <v>1299</v>
       </c>
       <c r="I432" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1917</v>
       </c>
@@ -15869,10 +15869,10 @@
         <v>1300</v>
       </c>
       <c r="I433" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1917</v>
       </c>
@@ -15895,10 +15895,10 @@
         <v>1301</v>
       </c>
       <c r="I434" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>1917</v>
       </c>
@@ -15921,13 +15921,13 @@
         <v>1302</v>
       </c>
       <c r="I435" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J435" t="s">
         <v>1352</v>
       </c>
-      <c r="J435" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>1917</v>
       </c>
@@ -15950,13 +15950,13 @@
         <v>1302</v>
       </c>
       <c r="I436" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J436" t="s">
         <v>1352</v>
       </c>
-      <c r="J436" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1917</v>
       </c>
@@ -15979,13 +15979,13 @@
         <v>1302</v>
       </c>
       <c r="I437" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J437" t="s">
         <v>1352</v>
       </c>
-      <c r="J437" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>1917</v>
       </c>
@@ -16008,13 +16008,13 @@
         <v>1302</v>
       </c>
       <c r="I438" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J438" t="s">
         <v>1352</v>
       </c>
-      <c r="J438" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>1917</v>
       </c>
@@ -16034,13 +16034,13 @@
         <v>1186</v>
       </c>
       <c r="H439" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I439" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>1917</v>
       </c>
@@ -16060,13 +16060,13 @@
         <v>936</v>
       </c>
       <c r="H440" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I440" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>1917</v>
       </c>
@@ -16086,13 +16086,13 @@
         <v>1187</v>
       </c>
       <c r="H441" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I441" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>1917</v>
       </c>
@@ -16115,10 +16115,10 @@
         <v>1303</v>
       </c>
       <c r="I442" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>1917</v>
       </c>
@@ -16141,10 +16141,10 @@
         <v>1304</v>
       </c>
       <c r="I443" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>1917</v>
       </c>
@@ -16167,10 +16167,10 @@
         <v>1304</v>
       </c>
       <c r="I444" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>1917</v>
       </c>
@@ -16190,13 +16190,13 @@
         <v>936</v>
       </c>
       <c r="H445" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I445" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>1917</v>
       </c>
@@ -16219,10 +16219,10 @@
         <v>1305</v>
       </c>
       <c r="I446" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>1917</v>
       </c>
@@ -16245,10 +16245,10 @@
         <v>1305</v>
       </c>
       <c r="I447" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1917</v>
       </c>
@@ -16271,10 +16271,10 @@
         <v>1305</v>
       </c>
       <c r="I448" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>1917</v>
       </c>
@@ -16297,10 +16297,10 @@
         <v>1305</v>
       </c>
       <c r="I449" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>1917</v>
       </c>
@@ -16323,10 +16323,10 @@
         <v>1305</v>
       </c>
       <c r="I450" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>1917</v>
       </c>
@@ -16349,10 +16349,10 @@
         <v>1305</v>
       </c>
       <c r="I451" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>1917</v>
       </c>
@@ -16375,10 +16375,10 @@
         <v>1306</v>
       </c>
       <c r="I452" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>1917</v>
       </c>
@@ -16401,10 +16401,10 @@
         <v>1307</v>
       </c>
       <c r="I453" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>1917</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>1284</v>
       </c>
       <c r="I454" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1917_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1917_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D900E987-F8AC-40DE-A390-F4ABF693F3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F21B636-0D7B-4E0B-A47D-21FE3C246C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2317,24 +2317,15 @@
     <t>A. Ältere Abteilung: Beowulf nach der Ausgabe von Heyne-Schücking. - Metrik.</t>
   </si>
   <si>
-    <t>B. Neuenglische Abteilung; Volkslieder und Verwandtes.- Selbständige Arbeiten.</t>
-  </si>
-  <si>
     <t>Stylistique française.</t>
   </si>
   <si>
     <t>Sprachprinzipien.</t>
   </si>
   <si>
-    <t>Histoire de la litterature française, de la Révolution à 1840.</t>
-  </si>
-  <si>
     <t>Lecture de Victor Hugo.</t>
   </si>
   <si>
-    <t>La litterature de la Renaissance française.</t>
-  </si>
-  <si>
     <t>Die Anfänge der italienischen Literatur.</t>
   </si>
   <si>
@@ -2359,12 +2350,6 @@
     <t>Einführung in die Probleme der Syntax.</t>
   </si>
   <si>
-    <t>Interpretation de textes français du XVP siecle.</t>
-  </si>
-  <si>
-    <t>Le théatre des Romantiques.</t>
-  </si>
-  <si>
     <t>Alte Geschiehte, III. Teil: Römische Geschichte.</t>
   </si>
   <si>
@@ -3625,9 +3610,6 @@
     <t>reichel_hf</t>
   </si>
   <si>
-    <t>steiner_h</t>
-  </si>
-  <si>
     <t>cohn_g</t>
   </si>
   <si>
@@ -3691,15 +3673,9 @@
     <t>mueller_h</t>
   </si>
   <si>
-    <t>bloch_l</t>
-  </si>
-  <si>
     <t>steiger_o</t>
   </si>
   <si>
-    <t>roth_o</t>
-  </si>
-  <si>
     <t>oswald_a</t>
   </si>
   <si>
@@ -3949,12 +3925,6 @@
     <t>koehler_l1</t>
   </si>
   <si>
-    <t>frey_h</t>
-  </si>
-  <si>
-    <t>brun_r</t>
-  </si>
-  <si>
     <t>hoessly_h</t>
   </si>
   <si>
@@ -4003,9 +3973,6 @@
     <t>vonorelli_k</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>nager_fr</t>
   </si>
   <si>
@@ -4051,9 +4018,6 @@
     <t>vongonzenbach_w</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>maier_hw</t>
   </si>
   <si>
@@ -4118,6 +4082,42 @@
   </si>
   <si>
     <t>anderes_e</t>
+  </si>
+  <si>
+    <t>frey_h2</t>
+  </si>
+  <si>
+    <t>Interprétation de textes français du XVIe siècle.</t>
+  </si>
+  <si>
+    <t>Le théâtre des Romantiques.</t>
+  </si>
+  <si>
+    <t>Histoire de la littérature française, de la Révolution à 1840.</t>
+  </si>
+  <si>
+    <t>La littérature de la Renaissance française.</t>
+  </si>
+  <si>
+    <t>B. Neuenglische Abteilung: Volkslieder und Verwandtes.- Selbständige Arbeiten.</t>
+  </si>
+  <si>
+    <t>bloch_b</t>
+  </si>
+  <si>
+    <t>brun_h</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>steiner_h2</t>
+  </si>
+  <si>
+    <t>roth_o2</t>
   </si>
 </sst>
 </file>
@@ -4159,11 +4159,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4467,11 +4470,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G149" sqref="G149"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
@@ -4496,13 +4499,13 @@
         <v>462</v>
       </c>
       <c r="G1" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="H1" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="I1" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4522,13 +4525,13 @@
         <v>463</v>
       </c>
       <c r="G2" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="H2" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="I2" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4548,16 +4551,16 @@
         <v>464</v>
       </c>
       <c r="G3" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="H3" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="I3" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="J3" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4577,16 +4580,16 @@
         <v>465</v>
       </c>
       <c r="G4" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="H4" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="I4" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="J4" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4606,13 +4609,13 @@
         <v>466</v>
       </c>
       <c r="G5" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="H5" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="I5" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4632,16 +4635,16 @@
         <v>467</v>
       </c>
       <c r="G6" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="H6" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="I6" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="J6" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4661,16 +4664,16 @@
         <v>468</v>
       </c>
       <c r="G7" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="H7" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="I7" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="J7" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4690,13 +4693,13 @@
         <v>469</v>
       </c>
       <c r="G8" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H8" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="I8" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4716,13 +4719,13 @@
         <v>470</v>
       </c>
       <c r="G9" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H9" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="I9" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4742,13 +4745,13 @@
         <v>471</v>
       </c>
       <c r="G10" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H10" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="I10" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4768,13 +4771,13 @@
         <v>472</v>
       </c>
       <c r="G11" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="H11" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="I11" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4794,13 +4797,13 @@
         <v>473</v>
       </c>
       <c r="G12" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="H12" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="I12" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4820,13 +4823,13 @@
         <v>474</v>
       </c>
       <c r="G13" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="H13" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="I13" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4846,13 +4849,13 @@
         <v>475</v>
       </c>
       <c r="G14" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="H14" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="I14" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4872,13 +4875,13 @@
         <v>476</v>
       </c>
       <c r="G15" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="H15" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="I15" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4898,13 +4901,13 @@
         <v>477</v>
       </c>
       <c r="G16" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H16" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="I16" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -4924,13 +4927,13 @@
         <v>478</v>
       </c>
       <c r="G17" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="H17" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="I17" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -4950,13 +4953,13 @@
         <v>479</v>
       </c>
       <c r="G18" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="H18" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="I18" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -4976,13 +4979,13 @@
         <v>480</v>
       </c>
       <c r="G19" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="H19" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="I19" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -5002,13 +5005,13 @@
         <v>481</v>
       </c>
       <c r="G20" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="H20" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="I20" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -5028,13 +5031,13 @@
         <v>482</v>
       </c>
       <c r="G21" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="H21" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="I21" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -5054,13 +5057,13 @@
         <v>483</v>
       </c>
       <c r="G22" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="H22" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="I22" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -5080,13 +5083,13 @@
         <v>484</v>
       </c>
       <c r="G23" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="H23" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="I23" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -5106,13 +5109,13 @@
         <v>485</v>
       </c>
       <c r="G24" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="H24" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="I24" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -5132,13 +5135,13 @@
         <v>486</v>
       </c>
       <c r="G25" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="H25" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="I25" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -5158,13 +5161,13 @@
         <v>487</v>
       </c>
       <c r="G26" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="H26" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="I26" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -5184,13 +5187,13 @@
         <v>488</v>
       </c>
       <c r="G27" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H27" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="I27" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -5210,13 +5213,13 @@
         <v>489</v>
       </c>
       <c r="G28" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="H28" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="I28" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -5236,13 +5239,13 @@
         <v>490</v>
       </c>
       <c r="G29" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="H29" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="I29" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -5262,13 +5265,13 @@
         <v>491</v>
       </c>
       <c r="G30" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="H30" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="I30" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -5288,13 +5291,13 @@
         <v>492</v>
       </c>
       <c r="G31" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="H31" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="I31" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -5314,13 +5317,13 @@
         <v>493</v>
       </c>
       <c r="G32" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="H32" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="I32" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5340,13 +5343,13 @@
         <v>494</v>
       </c>
       <c r="G33" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="H33" t="s">
-        <v>1201</v>
+        <v>1364</v>
       </c>
       <c r="I33" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5366,13 +5369,13 @@
         <v>495</v>
       </c>
       <c r="G34" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="H34" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="I34" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5392,13 +5395,13 @@
         <v>496</v>
       </c>
       <c r="G35" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="H35" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="I35" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5418,13 +5421,13 @@
         <v>497</v>
       </c>
       <c r="G36" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="H36" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="I36" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5444,13 +5447,13 @@
         <v>498</v>
       </c>
       <c r="G37" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="H37" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="I37" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5470,13 +5473,13 @@
         <v>499</v>
       </c>
       <c r="G38" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="H38" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="I38" t="s">
-        <v>1354</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5496,13 +5499,13 @@
         <v>500</v>
       </c>
       <c r="G39" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="H39" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="I39" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5522,13 +5525,13 @@
         <v>501</v>
       </c>
       <c r="G40" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="H40" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="I40" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5548,13 +5551,13 @@
         <v>502</v>
       </c>
       <c r="G41" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="H41" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="I41" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5574,13 +5577,13 @@
         <v>503</v>
       </c>
       <c r="G42" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="H42" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="I42" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5600,13 +5603,13 @@
         <v>504</v>
       </c>
       <c r="G43" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="H43" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="I43" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5626,13 +5629,13 @@
         <v>505</v>
       </c>
       <c r="G44" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="H44" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="I44" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5652,13 +5655,13 @@
         <v>506</v>
       </c>
       <c r="G45" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="H45" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="I45" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5678,13 +5681,13 @@
         <v>507</v>
       </c>
       <c r="G46" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="H46" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="I46" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5704,13 +5707,13 @@
         <v>508</v>
       </c>
       <c r="G47" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="H47" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="I47" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5730,13 +5733,13 @@
         <v>509</v>
       </c>
       <c r="G48" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="H48" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="I48" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5756,13 +5759,13 @@
         <v>510</v>
       </c>
       <c r="G49" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="H49" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="I49" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5782,13 +5785,13 @@
         <v>511</v>
       </c>
       <c r="G50" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="H50" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="I50" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5808,13 +5811,13 @@
         <v>512</v>
       </c>
       <c r="G51" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="H51" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="I51" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5834,13 +5837,13 @@
         <v>513</v>
       </c>
       <c r="G52" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="H52" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="I52" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5860,13 +5863,13 @@
         <v>514</v>
       </c>
       <c r="G53" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="H53" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="I53" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5886,13 +5889,13 @@
         <v>515</v>
       </c>
       <c r="G54" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="H54" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="I54" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -5912,13 +5915,13 @@
         <v>516</v>
       </c>
       <c r="G55" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="H55" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="I55" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -5938,13 +5941,13 @@
         <v>517</v>
       </c>
       <c r="G56" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="H56" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="I56" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -5964,13 +5967,13 @@
         <v>518</v>
       </c>
       <c r="G57" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="H57" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="I57" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -5990,13 +5993,13 @@
         <v>519</v>
       </c>
       <c r="G58" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="H58" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="I58" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -6016,13 +6019,13 @@
         <v>520</v>
       </c>
       <c r="G59" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="H59" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="I59" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -6042,13 +6045,13 @@
         <v>521</v>
       </c>
       <c r="G60" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="H60" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="I60" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -6068,13 +6071,13 @@
         <v>522</v>
       </c>
       <c r="G61" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="H61" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="I61" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -6094,16 +6097,16 @@
         <v>523</v>
       </c>
       <c r="G62" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="H62" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="I62" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="J62" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -6123,13 +6126,13 @@
         <v>524</v>
       </c>
       <c r="G63" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="H63" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="I63" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -6149,13 +6152,13 @@
         <v>525</v>
       </c>
       <c r="G64" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H64" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="I64" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -6175,13 +6178,13 @@
         <v>526</v>
       </c>
       <c r="G65" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="H65" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="I65" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -6201,13 +6204,13 @@
         <v>527</v>
       </c>
       <c r="G66" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="H66" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="I66" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -6227,13 +6230,13 @@
         <v>528</v>
       </c>
       <c r="G67" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="H67" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="I67" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -6253,13 +6256,13 @@
         <v>529</v>
       </c>
       <c r="G68" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="H68" t="s">
-        <v>1201</v>
+        <v>1364</v>
       </c>
       <c r="I68" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -6279,13 +6282,13 @@
         <v>530</v>
       </c>
       <c r="G69" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="H69" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="I69" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -6305,13 +6308,13 @@
         <v>531</v>
       </c>
       <c r="G70" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="H70" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="I70" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -6331,13 +6334,13 @@
         <v>532</v>
       </c>
       <c r="G71" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="H71" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="I71" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -6357,13 +6360,13 @@
         <v>533</v>
       </c>
       <c r="G72" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="H72" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="I72" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -6383,13 +6386,13 @@
         <v>534</v>
       </c>
       <c r="G73" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="H73" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="I73" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -6409,13 +6412,13 @@
         <v>535</v>
       </c>
       <c r="G74" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="H74" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="I74" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -6435,13 +6438,13 @@
         <v>536</v>
       </c>
       <c r="G75" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="H75" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="I75" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -6461,13 +6464,13 @@
         <v>537</v>
       </c>
       <c r="G76" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="H76" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="I76" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -6487,13 +6490,13 @@
         <v>538</v>
       </c>
       <c r="G77" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="H77" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="I77" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -6513,16 +6516,16 @@
         <v>539</v>
       </c>
       <c r="G78" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="H78" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="I78" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="J78" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -6542,16 +6545,16 @@
         <v>540</v>
       </c>
       <c r="G79" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="H79" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="I79" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="J79" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -6571,13 +6574,13 @@
         <v>541</v>
       </c>
       <c r="G80" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="H80" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="I80" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -6597,13 +6600,13 @@
         <v>542</v>
       </c>
       <c r="G81" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="H81" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="I81" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -6623,13 +6626,13 @@
         <v>543</v>
       </c>
       <c r="G82" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="H82" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="I82" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -6649,13 +6652,13 @@
         <v>544</v>
       </c>
       <c r="G83" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="H83" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="I83" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -6675,13 +6678,13 @@
         <v>545</v>
       </c>
       <c r="G84" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="H84" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="I84" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -6701,13 +6704,13 @@
         <v>546</v>
       </c>
       <c r="G85" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="H85" t="s">
-        <v>1309</v>
+        <v>1354</v>
       </c>
       <c r="I85" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -6727,13 +6730,13 @@
         <v>547</v>
       </c>
       <c r="G86" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="H86" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="I86" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -6753,13 +6756,13 @@
         <v>548</v>
       </c>
       <c r="G87" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="H87" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="I87" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -6779,13 +6782,13 @@
         <v>549</v>
       </c>
       <c r="G88" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="H88" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="I88" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -6805,13 +6808,13 @@
         <v>550</v>
       </c>
       <c r="G89" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="H89" t="s">
-        <v>1327</v>
+        <v>1363</v>
       </c>
       <c r="I89" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -6831,13 +6834,13 @@
         <v>551</v>
       </c>
       <c r="G90" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="H90" t="s">
-        <v>1327</v>
+        <v>1363</v>
       </c>
       <c r="I90" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -6857,13 +6860,13 @@
         <v>552</v>
       </c>
       <c r="G91" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="H91" t="s">
-        <v>1327</v>
+        <v>1363</v>
       </c>
       <c r="I91" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -6883,13 +6886,13 @@
         <v>553</v>
       </c>
       <c r="G92" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="H92" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="I92" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -6909,13 +6912,13 @@
         <v>554</v>
       </c>
       <c r="G93" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="H93" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="I93" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -6935,13 +6938,13 @@
         <v>555</v>
       </c>
       <c r="G94" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H94" t="s">
-        <v>1339</v>
+        <v>1328</v>
       </c>
       <c r="I94" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -6961,13 +6964,13 @@
         <v>556</v>
       </c>
       <c r="G95" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="H95" t="s">
-        <v>1339</v>
+        <v>1328</v>
       </c>
       <c r="I95" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -6987,10 +6990,10 @@
         <v>557</v>
       </c>
       <c r="G96" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="H96" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -7010,10 +7013,10 @@
         <v>558</v>
       </c>
       <c r="G97" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="H97" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -7033,10 +7036,10 @@
         <v>559</v>
       </c>
       <c r="G98" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="H98" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -7056,10 +7059,10 @@
         <v>560</v>
       </c>
       <c r="G99" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="H99" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -7079,13 +7082,13 @@
         <v>561</v>
       </c>
       <c r="G100" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="H100" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="I100" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -7105,13 +7108,13 @@
         <v>562</v>
       </c>
       <c r="G101" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="H101" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="I101" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -7131,13 +7134,13 @@
         <v>563</v>
       </c>
       <c r="G102" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="H102" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="I102" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -7157,13 +7160,13 @@
         <v>564</v>
       </c>
       <c r="G103" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="H103" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="I103" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -7183,13 +7186,13 @@
         <v>565</v>
       </c>
       <c r="G104" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="H104" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="I104" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -7209,13 +7212,13 @@
         <v>545</v>
       </c>
       <c r="G105" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="H105" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="I105" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -7235,13 +7238,13 @@
         <v>566</v>
       </c>
       <c r="G106" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="H106" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="I106" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -7261,13 +7264,13 @@
         <v>567</v>
       </c>
       <c r="G107" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="H107" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="I107" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -7287,13 +7290,13 @@
         <v>568</v>
       </c>
       <c r="G108" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="H108" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="I108" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -7313,13 +7316,13 @@
         <v>569</v>
       </c>
       <c r="G109" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="H109" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="I109" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -7339,13 +7342,13 @@
         <v>570</v>
       </c>
       <c r="G110" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="H110" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="I110" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -7365,13 +7368,13 @@
         <v>571</v>
       </c>
       <c r="G111" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="H111" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="I111" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -7391,13 +7394,13 @@
         <v>572</v>
       </c>
       <c r="G112" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="H112" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="I112" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -7417,13 +7420,13 @@
         <v>573</v>
       </c>
       <c r="G113" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="H113" t="s">
-        <v>1223</v>
+        <v>1360</v>
       </c>
       <c r="I113" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -7443,13 +7446,13 @@
         <v>574</v>
       </c>
       <c r="G114" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="H114" t="s">
-        <v>1223</v>
+        <v>1360</v>
       </c>
       <c r="I114" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -7469,13 +7472,13 @@
         <v>575</v>
       </c>
       <c r="G115" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="H115" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
       <c r="I115" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -7495,13 +7498,13 @@
         <v>576</v>
       </c>
       <c r="G116" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="H116" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="I116" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -7521,13 +7524,13 @@
         <v>577</v>
       </c>
       <c r="G117" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H117" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="I117" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -7547,13 +7550,13 @@
         <v>578</v>
       </c>
       <c r="G118" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="H118" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="I118" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -7573,13 +7576,13 @@
         <v>579</v>
       </c>
       <c r="G119" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H119" t="s">
-        <v>1225</v>
+        <v>1365</v>
       </c>
       <c r="I119" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -7599,13 +7602,13 @@
         <v>580</v>
       </c>
       <c r="G120" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H120" t="s">
-        <v>1225</v>
+        <v>1365</v>
       </c>
       <c r="I120" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -7625,13 +7628,13 @@
         <v>581</v>
       </c>
       <c r="G121" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H121" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="I121" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -7651,13 +7654,13 @@
         <v>582</v>
       </c>
       <c r="G122" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H122" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="I122" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -7677,13 +7680,13 @@
         <v>583</v>
       </c>
       <c r="G123" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H123" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="I123" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -7703,13 +7706,13 @@
         <v>584</v>
       </c>
       <c r="G124" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="H124" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="I124" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -7729,13 +7732,13 @@
         <v>585</v>
       </c>
       <c r="G125" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="H125" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="I125" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -7755,13 +7758,13 @@
         <v>586</v>
       </c>
       <c r="G126" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="H126" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="I126" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -7781,13 +7784,13 @@
         <v>587</v>
       </c>
       <c r="G127" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="H127" t="s">
-        <v>1327</v>
+        <v>1363</v>
       </c>
       <c r="I127" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -7807,13 +7810,13 @@
         <v>588</v>
       </c>
       <c r="G128" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="H128" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="I128" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -7833,13 +7836,13 @@
         <v>589</v>
       </c>
       <c r="G129" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H129" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="I129" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -7859,13 +7862,13 @@
         <v>590</v>
       </c>
       <c r="G130" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H130" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="I130" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -7885,13 +7888,13 @@
         <v>591</v>
       </c>
       <c r="G131" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="H131" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="I131" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -7911,13 +7914,13 @@
         <v>592</v>
       </c>
       <c r="G132" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="H132" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="I132" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -7937,13 +7940,13 @@
         <v>593</v>
       </c>
       <c r="G133" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="H133" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="I133" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -7963,13 +7966,13 @@
         <v>594</v>
       </c>
       <c r="G134" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H134" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="I134" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -7989,13 +7992,13 @@
         <v>595</v>
       </c>
       <c r="G135" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H135" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="I135" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -8015,13 +8018,13 @@
         <v>596</v>
       </c>
       <c r="G136" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="H136" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="I136" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -8041,13 +8044,13 @@
         <v>597</v>
       </c>
       <c r="G137" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H137" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="I137" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -8067,13 +8070,13 @@
         <v>598</v>
       </c>
       <c r="G138" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H138" t="s">
-        <v>1310</v>
+        <v>1361</v>
       </c>
       <c r="I138" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -8093,13 +8096,13 @@
         <v>599</v>
       </c>
       <c r="G139" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="H139" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="I139" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -8119,13 +8122,13 @@
         <v>600</v>
       </c>
       <c r="G140" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H140" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="I140" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -8145,13 +8148,13 @@
         <v>601</v>
       </c>
       <c r="G141" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H141" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="I141" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -8171,13 +8174,13 @@
         <v>602</v>
       </c>
       <c r="G142" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H142" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="I142" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -8197,13 +8200,13 @@
         <v>603</v>
       </c>
       <c r="G143" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H143" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="I143" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
@@ -8223,16 +8226,16 @@
         <v>604</v>
       </c>
       <c r="G144" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="H144" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="I144" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="J144" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -8252,16 +8255,16 @@
         <v>605</v>
       </c>
       <c r="G145" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="H145" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="I145" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="J145" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -8281,13 +8284,13 @@
         <v>606</v>
       </c>
       <c r="G146" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="H146" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="I146" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -8307,13 +8310,13 @@
         <v>607</v>
       </c>
       <c r="G147" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="H147" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="I147" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -8333,13 +8336,13 @@
         <v>608</v>
       </c>
       <c r="G148" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="H148" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="I148" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -8359,13 +8362,13 @@
         <v>609</v>
       </c>
       <c r="G149" t="s">
-        <v>1017</v>
-      </c>
-      <c r="H149" t="s">
-        <v>1343</v>
+        <v>1012</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>1362</v>
       </c>
       <c r="I149" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -8385,13 +8388,13 @@
         <v>610</v>
       </c>
       <c r="G150" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H150" t="s">
-        <v>1343</v>
+        <v>1013</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>1362</v>
       </c>
       <c r="I150" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -8411,13 +8414,13 @@
         <v>611</v>
       </c>
       <c r="G151" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="H151" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="I151" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -8437,13 +8440,13 @@
         <v>612</v>
       </c>
       <c r="G152" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H152" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="I152" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -8463,13 +8466,13 @@
         <v>613</v>
       </c>
       <c r="G153" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H153" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="I153" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -8489,13 +8492,13 @@
         <v>614</v>
       </c>
       <c r="G154" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="H154" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="I154" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -8515,13 +8518,13 @@
         <v>615</v>
       </c>
       <c r="G155" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="H155" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="I155" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -8541,13 +8544,13 @@
         <v>616</v>
       </c>
       <c r="G156" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H156" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
       <c r="I156" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -8567,13 +8570,13 @@
         <v>617</v>
       </c>
       <c r="G157" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H157" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="I157" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -8593,13 +8596,13 @@
         <v>618</v>
       </c>
       <c r="G158" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H158" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="I158" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -8619,13 +8622,13 @@
         <v>619</v>
       </c>
       <c r="G159" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H159" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="I159" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -8645,13 +8648,13 @@
         <v>620</v>
       </c>
       <c r="G160" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="H160" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="I160" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -8671,13 +8674,13 @@
         <v>621</v>
       </c>
       <c r="G161" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="H161" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="I161" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -8697,13 +8700,13 @@
         <v>622</v>
       </c>
       <c r="G162" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H162" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="I162" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -8723,13 +8726,13 @@
         <v>623</v>
       </c>
       <c r="G163" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="H163" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
       <c r="I163" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -8749,13 +8752,13 @@
         <v>624</v>
       </c>
       <c r="G164" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H164" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
       <c r="I164" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -8775,13 +8778,13 @@
         <v>625</v>
       </c>
       <c r="G165" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H165" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="I165" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -8801,13 +8804,13 @@
         <v>626</v>
       </c>
       <c r="G166" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H166" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="I166" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -8827,13 +8830,13 @@
         <v>627</v>
       </c>
       <c r="G167" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H167" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="I167" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -8853,13 +8856,13 @@
         <v>628</v>
       </c>
       <c r="G168" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="H168" t="s">
-        <v>1341</v>
+        <v>1330</v>
       </c>
       <c r="I168" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -8879,19 +8882,19 @@
         <v>629</v>
       </c>
       <c r="G169" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="H169" t="s">
-        <v>1341</v>
+        <v>1330</v>
       </c>
       <c r="I169" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="K169" t="s">
+        <v>1331</v>
+      </c>
+      <c r="L169" t="s">
         <v>1342</v>
-      </c>
-      <c r="L169" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -8911,13 +8914,13 @@
         <v>630</v>
       </c>
       <c r="G170" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="H170" t="s">
-        <v>1341</v>
+        <v>1330</v>
       </c>
       <c r="I170" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -8937,13 +8940,13 @@
         <v>631</v>
       </c>
       <c r="G171" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="H171" t="s">
-        <v>1341</v>
+        <v>1330</v>
       </c>
       <c r="I171" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -8963,13 +8966,13 @@
         <v>632</v>
       </c>
       <c r="G172" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="H172" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I172" t="s">
         <v>1342</v>
-      </c>
-      <c r="I172" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -8989,13 +8992,13 @@
         <v>633</v>
       </c>
       <c r="G173" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="H173" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I173" t="s">
         <v>1342</v>
-      </c>
-      <c r="I173" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -9015,13 +9018,13 @@
         <v>634</v>
       </c>
       <c r="G174" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="H174" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="I174" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -9041,13 +9044,13 @@
         <v>635</v>
       </c>
       <c r="G175" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="H175" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="I175" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -9067,13 +9070,13 @@
         <v>636</v>
       </c>
       <c r="G176" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="H176" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="I176" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -9093,13 +9096,13 @@
         <v>637</v>
       </c>
       <c r="G177" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="H177" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="I177" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -9119,13 +9122,13 @@
         <v>638</v>
       </c>
       <c r="G178" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="H178" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="I178" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -9145,13 +9148,13 @@
         <v>639</v>
       </c>
       <c r="G179" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H179" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="I179" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -9171,13 +9174,13 @@
         <v>640</v>
       </c>
       <c r="G180" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="H180" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="I180" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9197,13 +9200,13 @@
         <v>641</v>
       </c>
       <c r="G181" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="H181" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
       <c r="I181" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -9223,13 +9226,13 @@
         <v>642</v>
       </c>
       <c r="G182" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="H182" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
       <c r="I182" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -9249,13 +9252,13 @@
         <v>643</v>
       </c>
       <c r="G183" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="H183" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
       <c r="I183" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -9275,13 +9278,13 @@
         <v>644</v>
       </c>
       <c r="G184" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H184" t="s">
-        <v>1340</v>
+        <v>1329</v>
       </c>
       <c r="I184" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -9301,13 +9304,13 @@
         <v>645</v>
       </c>
       <c r="G185" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H185" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="I185" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -9327,13 +9330,13 @@
         <v>646</v>
       </c>
       <c r="G186" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="H186" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="I186" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -9353,13 +9356,13 @@
         <v>647</v>
       </c>
       <c r="G187" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="H187" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="I187" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -9379,13 +9382,13 @@
         <v>648</v>
       </c>
       <c r="G188" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="H188" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="I188" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -9405,13 +9408,13 @@
         <v>649</v>
       </c>
       <c r="G189" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="H189" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="I189" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -9431,13 +9434,13 @@
         <v>650</v>
       </c>
       <c r="G190" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="H190" t="s">
-        <v>1339</v>
+        <v>1328</v>
       </c>
       <c r="I190" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9457,13 +9460,13 @@
         <v>651</v>
       </c>
       <c r="G191" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="H191" t="s">
-        <v>1339</v>
+        <v>1328</v>
       </c>
       <c r="I191" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9483,13 +9486,13 @@
         <v>652</v>
       </c>
       <c r="G192" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="H192" t="s">
-        <v>1339</v>
+        <v>1328</v>
       </c>
       <c r="I192" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -9509,13 +9512,13 @@
         <v>653</v>
       </c>
       <c r="G193" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="H193" t="s">
-        <v>1339</v>
+        <v>1328</v>
       </c>
       <c r="I193" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -9535,13 +9538,13 @@
         <v>654</v>
       </c>
       <c r="G194" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="H194" t="s">
-        <v>1339</v>
+        <v>1328</v>
       </c>
       <c r="I194" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -9561,13 +9564,13 @@
         <v>655</v>
       </c>
       <c r="G195" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="H195" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="I195" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -9587,13 +9590,13 @@
         <v>656</v>
       </c>
       <c r="G196" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="H196" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="I196" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -9613,13 +9616,13 @@
         <v>657</v>
       </c>
       <c r="G197" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="H197" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="I197" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -9639,13 +9642,13 @@
         <v>658</v>
       </c>
       <c r="G198" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="H198" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="I198" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -9665,13 +9668,13 @@
         <v>659</v>
       </c>
       <c r="G199" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="H199" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="I199" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -9691,13 +9694,13 @@
         <v>660</v>
       </c>
       <c r="G200" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="H200" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="I200" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -9717,13 +9720,13 @@
         <v>661</v>
       </c>
       <c r="G201" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="H201" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="I201" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -9743,13 +9746,13 @@
         <v>662</v>
       </c>
       <c r="G202" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="H202" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="I202" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -9769,13 +9772,13 @@
         <v>663</v>
       </c>
       <c r="G203" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="H203" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="I203" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -9795,13 +9798,13 @@
         <v>664</v>
       </c>
       <c r="G204" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="H204" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="I204" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -9821,13 +9824,13 @@
         <v>665</v>
       </c>
       <c r="G205" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="H205" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="I205" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -9847,13 +9850,13 @@
         <v>666</v>
       </c>
       <c r="G206" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="H206" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="I206" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -9873,13 +9876,13 @@
         <v>667</v>
       </c>
       <c r="G207" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="H207" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="I207" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -9899,16 +9902,16 @@
         <v>668</v>
       </c>
       <c r="G208" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="H208" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="I208" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="J208" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -9928,16 +9931,16 @@
         <v>669</v>
       </c>
       <c r="G209" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="H209" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="I209" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="J209" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -9957,16 +9960,16 @@
         <v>670</v>
       </c>
       <c r="G210" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="H210" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="I210" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="J210" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -9986,13 +9989,13 @@
         <v>671</v>
       </c>
       <c r="G211" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="H211" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="I211" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -10012,13 +10015,13 @@
         <v>672</v>
       </c>
       <c r="G212" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="H212" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="I212" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -10038,13 +10041,13 @@
         <v>673</v>
       </c>
       <c r="G213" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="H213" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="I213" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -10064,13 +10067,13 @@
         <v>674</v>
       </c>
       <c r="G214" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="H214" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="I214" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -10090,13 +10093,13 @@
         <v>675</v>
       </c>
       <c r="G215" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="H215" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="I215" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -10116,13 +10119,13 @@
         <v>676</v>
       </c>
       <c r="G216" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="H216" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="I216" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -10142,16 +10145,16 @@
         <v>677</v>
       </c>
       <c r="G217" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="H217" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="I217" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="J217" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -10171,16 +10174,16 @@
         <v>678</v>
       </c>
       <c r="G218" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="H218" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="I218" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="J218" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -10200,16 +10203,16 @@
         <v>679</v>
       </c>
       <c r="G219" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="H219" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="I219" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="J219" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -10229,16 +10232,16 @@
         <v>680</v>
       </c>
       <c r="G220" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="H220" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="I220" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="J220" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -10258,16 +10261,16 @@
         <v>681</v>
       </c>
       <c r="G221" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="H221" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="I221" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="J221" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -10287,13 +10290,13 @@
         <v>682</v>
       </c>
       <c r="G222" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="H222" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="I222" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -10313,13 +10316,13 @@
         <v>683</v>
       </c>
       <c r="G223" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="H223" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="I223" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -10339,13 +10342,13 @@
         <v>684</v>
       </c>
       <c r="G224" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="H224" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="I224" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -10365,13 +10368,13 @@
         <v>685</v>
       </c>
       <c r="G225" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="H225" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="I225" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -10391,13 +10394,13 @@
         <v>686</v>
       </c>
       <c r="G226" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="H226" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="I226" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -10417,13 +10420,13 @@
         <v>687</v>
       </c>
       <c r="G227" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="H227" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="I227" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -10443,13 +10446,13 @@
         <v>688</v>
       </c>
       <c r="G228" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="H228" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="I228" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -10469,13 +10472,13 @@
         <v>689</v>
       </c>
       <c r="G229" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="H229" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="I229" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -10495,13 +10498,13 @@
         <v>690</v>
       </c>
       <c r="G230" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="H230" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="I230" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -10521,13 +10524,13 @@
         <v>691</v>
       </c>
       <c r="G231" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="H231" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="I231" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -10547,13 +10550,13 @@
         <v>692</v>
       </c>
       <c r="G232" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="H232" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="I232" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -10573,13 +10576,13 @@
         <v>693</v>
       </c>
       <c r="G233" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="H233" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="I233" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -10599,13 +10602,13 @@
         <v>694</v>
       </c>
       <c r="G234" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H234" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="I234" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -10625,13 +10628,13 @@
         <v>695</v>
       </c>
       <c r="G235" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="H235" t="s">
-        <v>1337</v>
+        <v>1326</v>
       </c>
       <c r="I235" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -10651,13 +10654,13 @@
         <v>696</v>
       </c>
       <c r="G236" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="H236" t="s">
-        <v>1337</v>
+        <v>1326</v>
       </c>
       <c r="I236" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -10677,13 +10680,13 @@
         <v>697</v>
       </c>
       <c r="G237" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="H237" t="s">
-        <v>1338</v>
+        <v>1327</v>
       </c>
       <c r="I237" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -10703,13 +10706,13 @@
         <v>698</v>
       </c>
       <c r="G238" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="H238" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="I238" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -10729,13 +10732,13 @@
         <v>699</v>
       </c>
       <c r="G239" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="H239" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="I239" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -10755,13 +10758,13 @@
         <v>700</v>
       </c>
       <c r="G240" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="H240" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="I240" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -10781,13 +10784,13 @@
         <v>701</v>
       </c>
       <c r="G241" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="H241" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="I241" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -10807,13 +10810,13 @@
         <v>702</v>
       </c>
       <c r="G242" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="H242" t="s">
-        <v>1337</v>
+        <v>1326</v>
       </c>
       <c r="I242" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -10833,13 +10836,13 @@
         <v>703</v>
       </c>
       <c r="G243" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="H243" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="I243" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -10859,13 +10862,13 @@
         <v>704</v>
       </c>
       <c r="G244" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="H244" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="I244" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -10885,13 +10888,13 @@
         <v>705</v>
       </c>
       <c r="G245" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="H245" t="s">
-        <v>1337</v>
+        <v>1326</v>
       </c>
       <c r="I245" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -10911,13 +10914,13 @@
         <v>706</v>
       </c>
       <c r="G246" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="H246" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="I246" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -10937,13 +10940,13 @@
         <v>707</v>
       </c>
       <c r="G247" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="H247" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="I247" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -10963,13 +10966,13 @@
         <v>708</v>
       </c>
       <c r="G248" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="H248" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="I248" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -10989,13 +10992,13 @@
         <v>709</v>
       </c>
       <c r="G249" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="H249" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="I249" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -11015,13 +11018,13 @@
         <v>710</v>
       </c>
       <c r="G250" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="H250" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="I250" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -11041,13 +11044,13 @@
         <v>711</v>
       </c>
       <c r="G251" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="H251" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="I251" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -11067,13 +11070,13 @@
         <v>712</v>
       </c>
       <c r="G252" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H252" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="I252" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -11093,13 +11096,13 @@
         <v>713</v>
       </c>
       <c r="G253" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H253" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="I253" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -11119,13 +11122,13 @@
         <v>714</v>
       </c>
       <c r="G254" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="H254" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="I254" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -11145,13 +11148,13 @@
         <v>715</v>
       </c>
       <c r="G255" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H255" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="I255" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -11171,13 +11174,13 @@
         <v>716</v>
       </c>
       <c r="G256" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H256" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="I256" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11197,13 +11200,13 @@
         <v>717</v>
       </c>
       <c r="G257" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="H257" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="I257" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11223,13 +11226,13 @@
         <v>718</v>
       </c>
       <c r="G258" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="H258" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="I258" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11249,13 +11252,13 @@
         <v>719</v>
       </c>
       <c r="G259" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="H259" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="I259" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11275,13 +11278,13 @@
         <v>720</v>
       </c>
       <c r="G260" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="H260" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="I260" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11301,13 +11304,13 @@
         <v>721</v>
       </c>
       <c r="G261" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H261" t="s">
-        <v>1336</v>
+        <v>1325</v>
       </c>
       <c r="I261" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11327,13 +11330,13 @@
         <v>722</v>
       </c>
       <c r="G262" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="H262" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="I262" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11353,13 +11356,13 @@
         <v>723</v>
       </c>
       <c r="G263" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H263" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="I263" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11379,13 +11382,13 @@
         <v>724</v>
       </c>
       <c r="G264" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="H264" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="I264" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11405,13 +11408,13 @@
         <v>725</v>
       </c>
       <c r="G265" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="H265" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="I265" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11431,13 +11434,13 @@
         <v>726</v>
       </c>
       <c r="G266" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="H266" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="I266" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11457,13 +11460,13 @@
         <v>727</v>
       </c>
       <c r="G267" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="H267" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="I267" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11483,13 +11486,13 @@
         <v>728</v>
       </c>
       <c r="G268" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H268" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="I268" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11509,13 +11512,13 @@
         <v>729</v>
       </c>
       <c r="G269" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="H269" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="I269" t="s">
-        <v>1354</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11535,13 +11538,13 @@
         <v>730</v>
       </c>
       <c r="G270" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="H270" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="I270" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11561,13 +11564,13 @@
         <v>731</v>
       </c>
       <c r="G271" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="H271" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="I271" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11587,13 +11590,13 @@
         <v>732</v>
       </c>
       <c r="G272" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="H272" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="I272" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -11613,13 +11616,13 @@
         <v>733</v>
       </c>
       <c r="G273" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H273" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="I273" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -11639,13 +11642,13 @@
         <v>734</v>
       </c>
       <c r="G274" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="H274" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="I274" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -11665,13 +11668,13 @@
         <v>735</v>
       </c>
       <c r="G275" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="H275" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="I275" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
@@ -11691,13 +11694,13 @@
         <v>736</v>
       </c>
       <c r="G276" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="H276" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="I276" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -11717,13 +11720,13 @@
         <v>737</v>
       </c>
       <c r="G277" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="H277" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="I277" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -11743,13 +11746,13 @@
         <v>738</v>
       </c>
       <c r="G278" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="H278" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
       <c r="I278" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
@@ -11769,13 +11772,13 @@
         <v>739</v>
       </c>
       <c r="G279" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="H279" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="I279" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -11795,13 +11798,13 @@
         <v>740</v>
       </c>
       <c r="G280" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="H280" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="I280" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -11821,13 +11824,13 @@
         <v>741</v>
       </c>
       <c r="G281" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="H281" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="I281" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
@@ -11847,13 +11850,13 @@
         <v>742</v>
       </c>
       <c r="G282" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="H282" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
       <c r="I282" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -11873,13 +11876,13 @@
         <v>743</v>
       </c>
       <c r="G283" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H283" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="I283" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -11899,13 +11902,13 @@
         <v>744</v>
       </c>
       <c r="G284" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="H284" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="I284" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -11925,13 +11928,13 @@
         <v>745</v>
       </c>
       <c r="G285" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H285" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="I285" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
@@ -11951,16 +11954,16 @@
         <v>746</v>
       </c>
       <c r="G286" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="H286" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="I286" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="J286" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
@@ -11980,16 +11983,16 @@
         <v>747</v>
       </c>
       <c r="G287" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="H287" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="I287" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="J287" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
@@ -12009,16 +12012,16 @@
         <v>748</v>
       </c>
       <c r="G288" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="H288" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="I288" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="J288" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -12038,13 +12041,13 @@
         <v>749</v>
       </c>
       <c r="G289" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="H289" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="I289" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -12064,13 +12067,13 @@
         <v>750</v>
       </c>
       <c r="G290" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="H290" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="I290" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -12090,13 +12093,13 @@
         <v>751</v>
       </c>
       <c r="G291" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="H291" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="I291" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -12116,13 +12119,13 @@
         <v>752</v>
       </c>
       <c r="G292" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H292" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="I292" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -12142,13 +12145,13 @@
         <v>753</v>
       </c>
       <c r="G293" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H293" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="I293" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -12168,13 +12171,13 @@
         <v>754</v>
       </c>
       <c r="G294" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H294" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="I294" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -12194,16 +12197,16 @@
         <v>755</v>
       </c>
       <c r="G295" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="H295" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="I295" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="J295" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -12223,16 +12226,16 @@
         <v>756</v>
       </c>
       <c r="G296" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="H296" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="I296" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="J296" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -12252,13 +12255,13 @@
         <v>757</v>
       </c>
       <c r="G297" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="H297" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="I297" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -12278,13 +12281,13 @@
         <v>758</v>
       </c>
       <c r="G298" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="H298" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="I298" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -12304,13 +12307,13 @@
         <v>759</v>
       </c>
       <c r="G299" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="H299" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="I299" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -12330,16 +12333,16 @@
         <v>760</v>
       </c>
       <c r="G300" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="H300" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="I300" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="J300" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -12359,13 +12362,13 @@
         <v>761</v>
       </c>
       <c r="G301" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="H301" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="I301" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -12388,13 +12391,13 @@
         <v>762</v>
       </c>
       <c r="G302" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="H302" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="I302" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -12417,13 +12420,13 @@
         <v>763</v>
       </c>
       <c r="G303" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="H303" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="I303" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -12443,13 +12446,13 @@
         <v>764</v>
       </c>
       <c r="G304" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="H304" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="I304" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12466,16 +12469,16 @@
         <v>460</v>
       </c>
       <c r="F305" t="s">
-        <v>765</v>
+        <v>1359</v>
       </c>
       <c r="G305" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="H305" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="I305" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12492,16 +12495,16 @@
         <v>460</v>
       </c>
       <c r="F306" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G306" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="H306" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="I306" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12518,16 +12521,16 @@
         <v>460</v>
       </c>
       <c r="F307" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G307" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="H307" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="I307" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12544,16 +12547,16 @@
         <v>460</v>
       </c>
       <c r="F308" t="s">
-        <v>768</v>
+        <v>1357</v>
       </c>
       <c r="G308" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="H308" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="I308" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12570,16 +12573,16 @@
         <v>460</v>
       </c>
       <c r="F309" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G309" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="H309" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="I309" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12596,16 +12599,16 @@
         <v>460</v>
       </c>
       <c r="F310" t="s">
-        <v>770</v>
+        <v>1358</v>
       </c>
       <c r="G310" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="H310" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="I310" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12622,16 +12625,16 @@
         <v>460</v>
       </c>
       <c r="F311" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="G311" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="H311" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="I311" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12648,16 +12651,16 @@
         <v>460</v>
       </c>
       <c r="F312" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G312" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="H312" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="I312" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12674,16 +12677,16 @@
         <v>460</v>
       </c>
       <c r="F313" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="G313" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H313" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="I313" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12700,16 +12703,16 @@
         <v>460</v>
       </c>
       <c r="F314" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G314" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="H314" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="I314" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12726,16 +12729,16 @@
         <v>460</v>
       </c>
       <c r="F315" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="G315" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="H315" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="I315" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12752,16 +12755,16 @@
         <v>460</v>
       </c>
       <c r="F316" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G316" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="H316" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="I316" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12778,16 +12781,16 @@
         <v>460</v>
       </c>
       <c r="F317" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="G317" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="H317" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="I317" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12804,16 +12807,16 @@
         <v>460</v>
       </c>
       <c r="F318" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="G318" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="H318" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="I318" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12830,16 +12833,16 @@
         <v>460</v>
       </c>
       <c r="F319" t="s">
-        <v>779</v>
+        <v>1355</v>
       </c>
       <c r="G319" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="H319" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="I319" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12856,16 +12859,16 @@
         <v>460</v>
       </c>
       <c r="F320" t="s">
-        <v>780</v>
+        <v>1356</v>
       </c>
       <c r="G320" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="H320" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="I320" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12882,16 +12885,16 @@
         <v>460</v>
       </c>
       <c r="F321" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="G321" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="H321" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="I321" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -12908,16 +12911,16 @@
         <v>460</v>
       </c>
       <c r="F322" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G322" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="H322" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="I322" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -12934,16 +12937,16 @@
         <v>460</v>
       </c>
       <c r="F323" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G323" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="H323" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="I323" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -12960,16 +12963,16 @@
         <v>460</v>
       </c>
       <c r="F324" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G324" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="H324" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="I324" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -12986,16 +12989,16 @@
         <v>460</v>
       </c>
       <c r="F325" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="G325" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="H325" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="I325" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13012,16 +13015,16 @@
         <v>460</v>
       </c>
       <c r="F326" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G326" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H326" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="I326" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13038,16 +13041,16 @@
         <v>460</v>
       </c>
       <c r="F327" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="G327" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="H327" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="I327" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13064,16 +13067,16 @@
         <v>460</v>
       </c>
       <c r="F328" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G328" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="H328" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="I328" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13090,16 +13093,16 @@
         <v>460</v>
       </c>
       <c r="F329" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G329" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="H329" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="I329" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13119,16 +13122,16 @@
         <v>460</v>
       </c>
       <c r="F330" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G330" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="H330" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="I330" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13145,16 +13148,16 @@
         <v>460</v>
       </c>
       <c r="F331" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="G331" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="H331" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="I331" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13171,16 +13174,16 @@
         <v>460</v>
       </c>
       <c r="F332" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G332" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="H332" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="I332" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13197,16 +13200,16 @@
         <v>460</v>
       </c>
       <c r="F333" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="G333" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="H333" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="I333" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13223,16 +13226,16 @@
         <v>460</v>
       </c>
       <c r="F334" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G334" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="H334" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="I334" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13249,16 +13252,16 @@
         <v>460</v>
       </c>
       <c r="F335" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="G335" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="H335" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="I335" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13275,16 +13278,16 @@
         <v>460</v>
       </c>
       <c r="F336" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G336" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="H336" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="I336" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13301,16 +13304,16 @@
         <v>460</v>
       </c>
       <c r="F337" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="G337" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H337" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="I337" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13327,16 +13330,16 @@
         <v>460</v>
       </c>
       <c r="F338" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="G338" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="H338" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="I338" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13353,16 +13356,16 @@
         <v>460</v>
       </c>
       <c r="F339" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="G339" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="H339" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="I339" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13379,16 +13382,16 @@
         <v>460</v>
       </c>
       <c r="F340" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="G340" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="H340" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="I340" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13405,16 +13408,16 @@
         <v>460</v>
       </c>
       <c r="F341" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="G341" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="H341" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="I341" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13431,16 +13434,16 @@
         <v>460</v>
       </c>
       <c r="F342" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="G342" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="H342" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="I342" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13457,16 +13460,16 @@
         <v>460</v>
       </c>
       <c r="F343" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="G343" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="H343" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="I343" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13483,16 +13486,16 @@
         <v>460</v>
       </c>
       <c r="F344" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G344" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H344" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="I344" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13509,16 +13512,16 @@
         <v>460</v>
       </c>
       <c r="F345" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="G345" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H345" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="I345" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13535,16 +13538,16 @@
         <v>460</v>
       </c>
       <c r="F346" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="G346" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="H346" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="I346" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13561,16 +13564,16 @@
         <v>460</v>
       </c>
       <c r="F347" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="G347" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="H347" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="I347" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13587,16 +13590,16 @@
         <v>460</v>
       </c>
       <c r="F348" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="G348" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="H348" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="I348" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13613,16 +13616,16 @@
         <v>460</v>
       </c>
       <c r="F349" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="G349" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H349" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="I349" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13639,16 +13642,16 @@
         <v>460</v>
       </c>
       <c r="F350" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G350" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="H350" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="I350" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13665,16 +13668,16 @@
         <v>460</v>
       </c>
       <c r="F351" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="G351" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="H351" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="I351" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13691,16 +13694,16 @@
         <v>460</v>
       </c>
       <c r="F352" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="G352" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H352" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="I352" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
@@ -13717,16 +13720,16 @@
         <v>460</v>
       </c>
       <c r="F353" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="G353" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H353" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
       <c r="I353" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
@@ -13743,16 +13746,16 @@
         <v>461</v>
       </c>
       <c r="F354" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G354" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="H354" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="I354" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
@@ -13769,16 +13772,16 @@
         <v>461</v>
       </c>
       <c r="F355" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G355" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="H355" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="I355" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -13795,16 +13798,16 @@
         <v>461</v>
       </c>
       <c r="F356" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G356" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="H356" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="I356" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
@@ -13821,22 +13824,22 @@
         <v>461</v>
       </c>
       <c r="F357" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="G357" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="H357" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="I357" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="K357" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="L357" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
@@ -13853,16 +13856,16 @@
         <v>461</v>
       </c>
       <c r="F358" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="G358" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="H358" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="I358" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
@@ -13879,16 +13882,16 @@
         <v>461</v>
       </c>
       <c r="F359" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="G359" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="H359" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="I359" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
@@ -13905,16 +13908,16 @@
         <v>461</v>
       </c>
       <c r="F360" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="G360" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="H360" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="I360" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -13931,16 +13934,16 @@
         <v>461</v>
       </c>
       <c r="F361" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="G361" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="H361" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="I361" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -13957,16 +13960,16 @@
         <v>461</v>
       </c>
       <c r="F362" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="G362" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="H362" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="I362" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
@@ -13986,16 +13989,16 @@
         <v>461</v>
       </c>
       <c r="F363" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="G363" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="H363" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="I363" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -14012,16 +14015,16 @@
         <v>461</v>
       </c>
       <c r="F364" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G364" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="H364" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="I364" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
@@ -14041,16 +14044,16 @@
         <v>461</v>
       </c>
       <c r="F365" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="G365" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="H365" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="I365" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
@@ -14067,16 +14070,16 @@
         <v>461</v>
       </c>
       <c r="F366" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="G366" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="H366" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="I366" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
@@ -14093,16 +14096,16 @@
         <v>461</v>
       </c>
       <c r="F367" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="G367" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="H367" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="I367" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
@@ -14119,16 +14122,16 @@
         <v>461</v>
       </c>
       <c r="F368" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="G368" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="H368" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="I368" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -14145,16 +14148,16 @@
         <v>461</v>
       </c>
       <c r="F369" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G369" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="H369" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="I369" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -14171,16 +14174,16 @@
         <v>461</v>
       </c>
       <c r="F370" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G370" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="H370" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="I370" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -14197,16 +14200,16 @@
         <v>461</v>
       </c>
       <c r="F371" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="G371" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="H371" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="I371" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -14223,16 +14226,16 @@
         <v>461</v>
       </c>
       <c r="F372" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="G372" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="H372" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="I372" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -14249,16 +14252,16 @@
         <v>461</v>
       </c>
       <c r="F373" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="G373" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="H373" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="I373" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -14275,16 +14278,16 @@
         <v>461</v>
       </c>
       <c r="F374" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="G374" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="H374" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="I374" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -14301,16 +14304,16 @@
         <v>461</v>
       </c>
       <c r="F375" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="G375" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="H375" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="I375" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -14327,16 +14330,16 @@
         <v>461</v>
       </c>
       <c r="F376" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="G376" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="H376" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="I376" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -14353,16 +14356,16 @@
         <v>461</v>
       </c>
       <c r="F377" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="G377" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H377" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="I377" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -14379,16 +14382,16 @@
         <v>461</v>
       </c>
       <c r="F378" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G378" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="H378" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="I378" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -14405,16 +14408,16 @@
         <v>461</v>
       </c>
       <c r="F379" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="G379" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="H379" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="I379" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -14431,16 +14434,16 @@
         <v>461</v>
       </c>
       <c r="F380" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G380" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="H380" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="I380" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -14457,16 +14460,16 @@
         <v>461</v>
       </c>
       <c r="F381" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G381" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="H381" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="I381" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -14483,16 +14486,16 @@
         <v>461</v>
       </c>
       <c r="F382" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="G382" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="H382" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="I382" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -14509,16 +14512,16 @@
         <v>461</v>
       </c>
       <c r="F383" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="G383" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="H383" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="I383" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -14535,16 +14538,16 @@
         <v>461</v>
       </c>
       <c r="F384" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="G384" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="H384" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="I384" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14561,16 +14564,16 @@
         <v>461</v>
       </c>
       <c r="F385" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="G385" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="H385" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="I385" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14587,16 +14590,16 @@
         <v>461</v>
       </c>
       <c r="F386" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="G386" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="H386" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="I386" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14613,16 +14616,16 @@
         <v>461</v>
       </c>
       <c r="F387" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="G387" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="H387" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="I387" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14639,16 +14642,16 @@
         <v>461</v>
       </c>
       <c r="F388" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="G388" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="H388" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="I388" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -14665,16 +14668,16 @@
         <v>461</v>
       </c>
       <c r="F389" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="G389" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="H389" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="I389" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -14691,16 +14694,16 @@
         <v>461</v>
       </c>
       <c r="F390" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="G390" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="H390" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="I390" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -14717,16 +14720,16 @@
         <v>461</v>
       </c>
       <c r="F391" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="G391" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="H391" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="I391" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -14743,16 +14746,16 @@
         <v>461</v>
       </c>
       <c r="F392" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="G392" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="H392" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="I392" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -14769,16 +14772,16 @@
         <v>461</v>
       </c>
       <c r="F393" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="G393" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="H393" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="I393" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -14795,16 +14798,16 @@
         <v>461</v>
       </c>
       <c r="F394" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="G394" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H394" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="I394" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -14821,16 +14824,16 @@
         <v>461</v>
       </c>
       <c r="F395" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="G395" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H395" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="I395" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -14847,16 +14850,16 @@
         <v>461</v>
       </c>
       <c r="F396" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="G396" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H396" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="I396" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -14876,16 +14879,16 @@
         <v>461</v>
       </c>
       <c r="F397" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="G397" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="H397" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="I397" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -14905,16 +14908,16 @@
         <v>461</v>
       </c>
       <c r="F398" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="G398" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="H398" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="I398" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -14934,16 +14937,16 @@
         <v>461</v>
       </c>
       <c r="F399" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="G399" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="H399" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="I399" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -14963,16 +14966,16 @@
         <v>461</v>
       </c>
       <c r="F400" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G400" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="H400" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="I400" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.3">
@@ -14992,16 +14995,16 @@
         <v>461</v>
       </c>
       <c r="F401" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="G401" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="H401" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="I401" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.3">
@@ -15021,16 +15024,16 @@
         <v>461</v>
       </c>
       <c r="F402" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="G402" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="H402" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="I402" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.3">
@@ -15050,16 +15053,16 @@
         <v>461</v>
       </c>
       <c r="F403" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="G403" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="H403" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="I403" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.3">
@@ -15079,16 +15082,16 @@
         <v>461</v>
       </c>
       <c r="F404" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="G404" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="H404" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="I404" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.3">
@@ -15108,16 +15111,16 @@
         <v>461</v>
       </c>
       <c r="F405" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="G405" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="H405" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="I405" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.3">
@@ -15137,16 +15140,16 @@
         <v>461</v>
       </c>
       <c r="F406" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="G406" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="H406" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="I406" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.3">
@@ -15166,16 +15169,16 @@
         <v>461</v>
       </c>
       <c r="F407" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="G407" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="H407" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="I407" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.3">
@@ -15192,16 +15195,16 @@
         <v>461</v>
       </c>
       <c r="F408" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="G408" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H408" t="s">
-        <v>1333</v>
+        <v>1322</v>
       </c>
       <c r="I408" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.3">
@@ -15218,16 +15221,16 @@
         <v>461</v>
       </c>
       <c r="F409" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="G409" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H409" t="s">
-        <v>1333</v>
+        <v>1322</v>
       </c>
       <c r="I409" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.3">
@@ -15244,16 +15247,16 @@
         <v>461</v>
       </c>
       <c r="F410" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="G410" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="H410" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="I410" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.3">
@@ -15270,16 +15273,16 @@
         <v>461</v>
       </c>
       <c r="F411" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="G411" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="H411" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="I411" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.3">
@@ -15296,16 +15299,16 @@
         <v>461</v>
       </c>
       <c r="F412" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="G412" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="H412" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="I412" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.3">
@@ -15322,16 +15325,16 @@
         <v>461</v>
       </c>
       <c r="F413" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="G413" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="H413" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="I413" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.3">
@@ -15348,22 +15351,22 @@
         <v>461</v>
       </c>
       <c r="F414" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G414" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="H414" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="I414" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="K414" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="L414" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.3">
@@ -15380,22 +15383,22 @@
         <v>461</v>
       </c>
       <c r="F415" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G415" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="H415" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="I415" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="K415" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="L415" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.3">
@@ -15412,13 +15415,13 @@
         <v>461</v>
       </c>
       <c r="F416" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="H416" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="I416" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
@@ -15435,16 +15438,16 @@
         <v>461</v>
       </c>
       <c r="F417" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G417" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H417" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="I417" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
@@ -15464,16 +15467,16 @@
         <v>538</v>
       </c>
       <c r="H418" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="I418" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="K418" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="L418" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
@@ -15490,16 +15493,16 @@
         <v>461</v>
       </c>
       <c r="F419" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G419" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="H419" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="I419" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
@@ -15516,16 +15519,16 @@
         <v>461</v>
       </c>
       <c r="F420" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G420" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="H420" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="I420" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
@@ -15542,16 +15545,16 @@
         <v>461</v>
       </c>
       <c r="F421" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="G421" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="H421" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="I421" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
@@ -15568,16 +15571,16 @@
         <v>461</v>
       </c>
       <c r="F422" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="G422" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H422" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="I422" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
@@ -15594,16 +15597,16 @@
         <v>461</v>
       </c>
       <c r="F423" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="G423" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="H423" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="I423" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
@@ -15620,16 +15623,16 @@
         <v>461</v>
       </c>
       <c r="F424" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="G424" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="H424" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="I424" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
@@ -15646,16 +15649,16 @@
         <v>461</v>
       </c>
       <c r="F425" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="G425" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="H425" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="I425" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
@@ -15672,16 +15675,16 @@
         <v>461</v>
       </c>
       <c r="F426" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="G426" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="H426" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="I426" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
@@ -15698,16 +15701,16 @@
         <v>461</v>
       </c>
       <c r="F427" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="G427" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="H427" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="I427" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
@@ -15724,16 +15727,16 @@
         <v>461</v>
       </c>
       <c r="F428" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="G428" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="H428" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="I428" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
@@ -15750,22 +15753,22 @@
         <v>461</v>
       </c>
       <c r="F429" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="G429" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="H429" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="I429" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="K429" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="L429" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
@@ -15782,16 +15785,16 @@
         <v>461</v>
       </c>
       <c r="F430" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="G430" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="H430" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="I430" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
@@ -15808,16 +15811,16 @@
         <v>461</v>
       </c>
       <c r="F431" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="G431" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="H431" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="I431" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
@@ -15834,16 +15837,16 @@
         <v>461</v>
       </c>
       <c r="F432" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="G432" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="H432" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="I432" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
@@ -15860,16 +15863,16 @@
         <v>461</v>
       </c>
       <c r="F433" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="G433" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="H433" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="I433" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.3">
@@ -15886,16 +15889,16 @@
         <v>461</v>
       </c>
       <c r="F434" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="G434" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="H434" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="I434" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.3">
@@ -15912,19 +15915,19 @@
         <v>461</v>
       </c>
       <c r="F435" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="G435" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="H435" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="I435" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="J435" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
@@ -15941,19 +15944,19 @@
         <v>461</v>
       </c>
       <c r="F436" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="G436" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="H436" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="I436" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="J436" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.3">
@@ -15970,19 +15973,19 @@
         <v>461</v>
       </c>
       <c r="F437" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="G437" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="H437" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="I437" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="J437" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.3">
@@ -15999,19 +16002,19 @@
         <v>461</v>
       </c>
       <c r="F438" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="G438" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H438" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="I438" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="J438" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
@@ -16028,16 +16031,16 @@
         <v>461</v>
       </c>
       <c r="F439" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="G439" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="H439" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="I439" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.3">
@@ -16054,16 +16057,16 @@
         <v>461</v>
       </c>
       <c r="F440" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="G440" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H440" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="I440" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.3">
@@ -16080,16 +16083,16 @@
         <v>461</v>
       </c>
       <c r="F441" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="G441" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="H441" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="I441" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.3">
@@ -16106,16 +16109,16 @@
         <v>461</v>
       </c>
       <c r="F442" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="G442" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H442" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
       <c r="I442" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.3">
@@ -16132,16 +16135,16 @@
         <v>461</v>
       </c>
       <c r="F443" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="G443" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="H443" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="I443" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.3">
@@ -16158,16 +16161,16 @@
         <v>461</v>
       </c>
       <c r="F444" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="G444" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H444" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="I444" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.3">
@@ -16184,16 +16187,16 @@
         <v>461</v>
       </c>
       <c r="F445" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="G445" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H445" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="I445" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.3">
@@ -16210,16 +16213,16 @@
         <v>461</v>
       </c>
       <c r="F446" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="G446" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="H446" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="I446" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.3">
@@ -16236,16 +16239,16 @@
         <v>461</v>
       </c>
       <c r="F447" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="G447" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H447" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="I447" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.3">
@@ -16262,16 +16265,16 @@
         <v>461</v>
       </c>
       <c r="F448" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="G448" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="H448" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="I448" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.3">
@@ -16288,16 +16291,16 @@
         <v>461</v>
       </c>
       <c r="F449" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="G449" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="H449" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="I449" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.3">
@@ -16314,16 +16317,16 @@
         <v>461</v>
       </c>
       <c r="F450" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="G450" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="H450" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="I450" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.3">
@@ -16340,16 +16343,16 @@
         <v>461</v>
       </c>
       <c r="F451" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="G451" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="H451" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="I451" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.3">
@@ -16366,16 +16369,16 @@
         <v>461</v>
       </c>
       <c r="F452" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="G452" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H452" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="I452" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.3">
@@ -16392,16 +16395,16 @@
         <v>461</v>
       </c>
       <c r="F453" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="G453" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H453" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="I453" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.3">
@@ -16418,16 +16421,16 @@
         <v>461</v>
       </c>
       <c r="F454" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="G454" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H454" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
       <c r="I454" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
   </sheetData>
